--- a/analysis/results/Q1_czech/univariate_analysis/uni_analysis_wb_colon.xlsx
+++ b/analysis/results/Q1_czech/univariate_analysis/uni_analysis_wb_colon.xlsx
@@ -1801,10 +1801,10 @@
         <v>1.94387523628779</v>
       </c>
       <c r="X2" t="n">
-        <v>0.225130890052356</v>
+        <v>0.452631578947368</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.136125654450262</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -1893,10 +1893,10 @@
         <v>-3.60675310907472</v>
       </c>
       <c r="X3" t="n">
-        <v>0.193717277486911</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -1985,10 +1985,10 @@
         <v>-1.48868127534784</v>
       </c>
       <c r="X4" t="n">
-        <v>0.183246073298429</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -2077,10 +2077,10 @@
         <v>0.312509431274844</v>
       </c>
       <c r="X5" t="n">
-        <v>0.335078534031414</v>
+        <v>0.673684210526316</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.115183246073298</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -2169,10 +2169,10 @@
         <v>1.55262416934798</v>
       </c>
       <c r="X6" t="n">
-        <v>0.230366492146597</v>
+        <v>0.463157894736842</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.104712041884817</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2261,10 +2261,10 @@
         <v>2.53288126776113</v>
       </c>
       <c r="X7" t="n">
-        <v>0.120418848167539</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2353,10 +2353,10 @@
         <v>0.115996179239782</v>
       </c>
       <c r="X8" t="n">
-        <v>0.486910994764398</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.151832460732984</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2445,10 +2445,10 @@
         <v>6.33023892446514</v>
       </c>
       <c r="X9" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2537,10 +2537,10 @@
         <v>-2.81208871533784</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2629,10 +2629,10 @@
         <v>0.553802181059108</v>
       </c>
       <c r="X11" t="n">
-        <v>0.104712041884817</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -2721,10 +2721,10 @@
         <v>0.24729230400974</v>
       </c>
       <c r="X12" t="n">
-        <v>0.282722513089005</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -2813,10 +2813,10 @@
         <v>2.26985485604769</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.0736842105263158</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -2905,10 +2905,10 @@
         <v>-0.39247836654479</v>
       </c>
       <c r="X14" t="n">
-        <v>0.345549738219895</v>
+        <v>0.694736842105263</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.12565445026178</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -2997,10 +2997,10 @@
         <v>0.196500442693485</v>
       </c>
       <c r="X15" t="n">
-        <v>0.282722513089005</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.130890052356021</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -3089,10 +3089,10 @@
         <v>-0.801154942396532</v>
       </c>
       <c r="X16" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.162303664921466</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -3181,10 +3181,10 @@
         <v>3.17242978246595</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.0842105263157895</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3273,10 +3273,10 @@
         <v>1.04387531009625</v>
       </c>
       <c r="X18" t="n">
-        <v>0.130890052356021</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3365,7 +3365,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>1.94530417735249</v>
       </c>
       <c r="X20" t="n">
-        <v>0.340314136125654</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.146596858638743</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3549,10 +3549,10 @@
         <v>-0.0511386262898235</v>
       </c>
       <c r="X21" t="n">
-        <v>0.282722513089005</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3641,10 +3641,10 @@
         <v>-1.42607219867238</v>
       </c>
       <c r="X22" t="n">
-        <v>0.340314136125654</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3733,10 +3733,10 @@
         <v>0.614079232392258</v>
       </c>
       <c r="X23" t="n">
-        <v>0.267015706806283</v>
+        <v>0.536842105263158</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -3825,10 +3825,10 @@
         <v>-1.21654283982571</v>
       </c>
       <c r="X24" t="n">
-        <v>0.492146596858639</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.136125654450262</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -3917,10 +3917,10 @@
         <v>2.75602025961687</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.147368421052632</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -4009,10 +4009,10 @@
         <v>-0.979307005689179</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -4101,10 +4101,10 @@
         <v>8.9172340302558</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -4193,10 +4193,10 @@
         <v>4.15774361900319</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4285,10 +4285,10 @@
         <v>-4.87469469080986</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4377,10 +4377,10 @@
         <v>-1.04780408601664</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -4561,10 +4561,10 @@
         <v>0.147947035555014</v>
       </c>
       <c r="X32" t="n">
-        <v>0.471204188481675</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.167539267015707</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4653,10 +4653,10 @@
         <v>0.38144468949646</v>
       </c>
       <c r="X33" t="n">
-        <v>0.12565445026178</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06282722513089</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -4745,10 +4745,10 @@
         <v>3.7981096599908</v>
       </c>
       <c r="X34" t="n">
-        <v>0.115183246073298</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -4837,10 +4837,10 @@
         <v>2.07469880051922</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -4929,10 +4929,10 @@
         <v>-0.363521974295965</v>
       </c>
       <c r="X36" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.198952879581152</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -5021,10 +5021,10 @@
         <v>-2.35659728127538</v>
       </c>
       <c r="X37" t="n">
-        <v>0.408376963350785</v>
+        <v>0.821052631578947</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -5113,10 +5113,10 @@
         <v>0.826342757832822</v>
       </c>
       <c r="X38" t="n">
-        <v>0.455497382198953</v>
+        <v>0.91578947368421</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.167539267015707</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -5205,10 +5205,10 @@
         <v>-1.32842487771268</v>
       </c>
       <c r="X39" t="n">
-        <v>0.424083769633508</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5297,10 +5297,10 @@
         <v>0.625139303517751</v>
       </c>
       <c r="X40" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.18848167539267</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5389,10 +5389,10 @@
         <v>0.127261454866897</v>
       </c>
       <c r="X41" t="n">
-        <v>0.486910994764398</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.172774869109948</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5481,10 +5481,10 @@
         <v>-1.00903780265882</v>
       </c>
       <c r="X42" t="n">
-        <v>0.387434554973822</v>
+        <v>0.778947368421053</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5573,10 +5573,10 @@
         <v>0.574778241318015</v>
       </c>
       <c r="X43" t="n">
-        <v>0.162303664921466</v>
+        <v>0.326315789473684</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5665,10 +5665,10 @@
         <v>-1.55849689738281</v>
       </c>
       <c r="X44" t="n">
-        <v>0.350785340314136</v>
+        <v>0.705263157894737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5757,10 +5757,10 @@
         <v>3.87566834283459</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -5849,10 +5849,10 @@
         <v>-0.232702645748713</v>
       </c>
       <c r="X46" t="n">
-        <v>0.183246073298429</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -5941,10 +5941,10 @@
         <v>-1.35378901544751</v>
       </c>
       <c r="X47" t="n">
-        <v>0.104712041884817</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -6033,10 +6033,10 @@
         <v>0.470829749825864</v>
       </c>
       <c r="X48" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -6125,10 +6125,10 @@
         <v>-1.41894882674194</v>
       </c>
       <c r="X49" t="n">
-        <v>0.37696335078534</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -6217,10 +6217,10 @@
         <v>4.8021493029527</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6309,10 +6309,10 @@
         <v>-8.19815086285905</v>
       </c>
       <c r="X51" t="n">
-        <v>0.303664921465969</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.00523560209424084</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -6401,10 +6401,10 @@
         <v>-0.690448307200706</v>
       </c>
       <c r="X52" t="n">
-        <v>0.167539267015707</v>
+        <v>0.336842105263158</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6585,10 +6585,10 @@
         <v>5.80663049385153</v>
       </c>
       <c r="X54" t="n">
-        <v>0.193717277486911</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.12565445026178</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6677,10 +6677,10 @@
         <v>-0.512960727066121</v>
       </c>
       <c r="X55" t="n">
-        <v>0.43979057591623</v>
+        <v>0.884210526315789</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.130890052356021</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6769,10 +6769,10 @@
         <v>-0.536485418937433</v>
       </c>
       <c r="X56" t="n">
-        <v>0.460732984293194</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.130890052356021</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -6861,10 +6861,10 @@
         <v>-1.40291735639263</v>
       </c>
       <c r="X57" t="n">
-        <v>0.371727748691099</v>
+        <v>0.747368421052632</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -6953,10 +6953,10 @@
         <v>-1.88161418559008</v>
       </c>
       <c r="X58" t="n">
-        <v>0.471204188481675</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.151832460732984</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -7045,10 +7045,10 @@
         <v>-0.835390346130722</v>
       </c>
       <c r="X59" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -7137,7 +7137,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
@@ -7229,10 +7229,10 @@
         <v>-1.10933852137642</v>
       </c>
       <c r="X61" t="n">
-        <v>0.12565445026178</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7321,10 +7321,10 @@
         <v>2.5956786328658</v>
       </c>
       <c r="X62" t="n">
-        <v>0.141361256544503</v>
+        <v>0.284210526315789</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.120418848167539</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7413,10 +7413,10 @@
         <v>-5.57683582762103</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7505,10 +7505,10 @@
         <v>-0.319049614254321</v>
       </c>
       <c r="X64" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.136125654450262</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7597,10 +7597,10 @@
         <v>0.488164929379955</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.147368421052632</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7781,10 +7781,10 @@
         <v>1.4843085607482</v>
       </c>
       <c r="X67" t="n">
-        <v>0.308900523560209</v>
+        <v>0.621052631578947</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.120418848167539</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -7873,10 +7873,10 @@
         <v>2.02225048005741</v>
       </c>
       <c r="X68" t="n">
-        <v>0.130890052356021</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Z68" t="s">
         <v>163</v>
@@ -7965,10 +7965,10 @@
         <v>7.12405164982413</v>
       </c>
       <c r="X69" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.12565445026178</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -8057,10 +8057,10 @@
         <v>-2.18785236723556</v>
       </c>
       <c r="X70" t="n">
-        <v>0.178010471204188</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -8149,10 +8149,10 @@
         <v>1.52982022750617</v>
       </c>
       <c r="X71" t="n">
-        <v>0.183246073298429</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.115183246073298</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -8241,10 +8241,10 @@
         <v>-2.09035936101266</v>
       </c>
       <c r="X72" t="n">
-        <v>0.418848167539267</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8333,10 +8333,10 @@
         <v>-0.542881811294831</v>
       </c>
       <c r="X73" t="n">
-        <v>0.214659685863874</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8425,10 +8425,10 @@
         <v>-0.350242308439598</v>
       </c>
       <c r="X74" t="n">
-        <v>0.104712041884817</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8517,10 +8517,10 @@
         <v>-0.772177154181035</v>
       </c>
       <c r="X75" t="n">
-        <v>0.167539267015707</v>
+        <v>0.336842105263158</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8609,10 +8609,10 @@
         <v>-0.141664981949146</v>
       </c>
       <c r="X76" t="n">
-        <v>0.157068062827225</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8701,10 +8701,10 @@
         <v>-3.72878219651386</v>
       </c>
       <c r="X77" t="n">
-        <v>0.172774869109948</v>
+        <v>0.347368421052632</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -8793,10 +8793,10 @@
         <v>-0.243227848620964</v>
       </c>
       <c r="X78" t="n">
-        <v>0.183246073298429</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -8885,10 +8885,10 @@
         <v>7.60376200830513</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -8977,10 +8977,10 @@
         <v>1.84190614950107</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.0842105263157895</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -9069,10 +9069,10 @@
         <v>-0.48666032057004</v>
       </c>
       <c r="X81" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.198952879581152</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9253,10 +9253,10 @@
         <v>-0.654550494591285</v>
       </c>
       <c r="X83" t="n">
-        <v>0.272251308900524</v>
+        <v>0.547368421052632</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.06282722513089</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9345,10 +9345,10 @@
         <v>-1.41855254402727</v>
       </c>
       <c r="X84" t="n">
-        <v>0.392670157068063</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9437,10 +9437,10 @@
         <v>-0.0808553846076468</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9529,10 +9529,10 @@
         <v>1.92526060867103</v>
       </c>
       <c r="X86" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -9621,10 +9621,10 @@
         <v>-2.00290309660414</v>
       </c>
       <c r="X87" t="n">
-        <v>0.18848167539267</v>
+        <v>0.378947368421053</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9713,10 +9713,10 @@
         <v>-0.972523041625523</v>
       </c>
       <c r="X88" t="n">
-        <v>0.403141361256544</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -9805,10 +9805,10 @@
         <v>-0.7747839274942</v>
       </c>
       <c r="X89" t="n">
-        <v>0.492146596858639</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.172774869109948</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -9897,10 +9897,10 @@
         <v>-3.53755431528969</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -9989,10 +9989,10 @@
         <v>-1.02846304791106</v>
       </c>
       <c r="X91" t="n">
-        <v>0.361256544502618</v>
+        <v>0.726315789473684</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.06282722513089</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -10081,10 +10081,10 @@
         <v>-1.08315571866211</v>
       </c>
       <c r="X92" t="n">
-        <v>0.240837696335079</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -10173,10 +10173,10 @@
         <v>-0.103513271117837</v>
       </c>
       <c r="X93" t="n">
-        <v>0.465968586387435</v>
+        <v>0.936842105263158</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.130890052356021</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10265,10 +10265,10 @@
         <v>0.426576643186221</v>
       </c>
       <c r="X94" t="n">
-        <v>0.141361256544503</v>
+        <v>0.284210526315789</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z94" t="s">
         <v>215</v>
@@ -10357,10 +10357,10 @@
         <v>-6.05170938199653</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10449,10 +10449,10 @@
         <v>-0.224261763062147</v>
       </c>
       <c r="X96" t="n">
-        <v>0.486910994764398</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.146596858638743</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10541,10 +10541,10 @@
         <v>-5.52353223382252</v>
       </c>
       <c r="X97" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.2</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10633,10 +10633,10 @@
         <v>-2.01958553642471</v>
       </c>
       <c r="X98" t="n">
-        <v>0.178010471204188</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10725,10 +10725,10 @@
         <v>-1.63870836623297</v>
       </c>
       <c r="X99" t="n">
-        <v>0.37696335078534</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -10817,10 +10817,10 @@
         <v>0.750860622185825</v>
       </c>
       <c r="X100" t="n">
-        <v>0.193717277486911</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -10909,10 +10909,10 @@
         <v>-1.3681879983446</v>
       </c>
       <c r="X101" t="n">
-        <v>0.214659685863874</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -11001,10 +11001,10 @@
         <v>-1.81655118690735</v>
       </c>
       <c r="X102" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.136842105263158</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.00523560209424084</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -11093,10 +11093,10 @@
         <v>0.765527322355412</v>
       </c>
       <c r="X103" t="n">
-        <v>0.256544502617801</v>
+        <v>0.515789473684211</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.104712041884817</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -11185,10 +11185,10 @@
         <v>-4.65579675422867</v>
       </c>
       <c r="X104" t="n">
-        <v>0.198952879581152</v>
+        <v>0.4</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11277,10 +11277,10 @@
         <v>-2.09166244955733</v>
       </c>
       <c r="X105" t="n">
-        <v>0.298429319371728</v>
+        <v>0.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11369,10 +11369,10 @@
         <v>-0.184182478598367</v>
       </c>
       <c r="X106" t="n">
-        <v>0.151832460732984</v>
+        <v>0.305263157894737</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11461,10 +11461,10 @@
         <v>6.40429276826716</v>
       </c>
       <c r="X107" t="n">
-        <v>0.104712041884817</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.141361256544503</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11553,10 +11553,10 @@
         <v>-0.32835156546642</v>
       </c>
       <c r="X108" t="n">
-        <v>0.460732984293194</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.151832460732984</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11645,10 +11645,10 @@
         <v>2.62901646777502</v>
       </c>
       <c r="X109" t="n">
-        <v>0.298429319371728</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.141361256544503</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11737,10 +11737,10 @@
         <v>-0.855798914495474</v>
       </c>
       <c r="X110" t="n">
-        <v>0.445026178010471</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.136125654450262</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -11829,10 +11829,10 @@
         <v>4.77798928491281</v>
       </c>
       <c r="X111" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z111" t="s">
         <v>249</v>
@@ -11921,10 +11921,10 @@
         <v>-0.216427857055863</v>
       </c>
       <c r="X112" t="n">
-        <v>0.49738219895288</v>
+        <v>1</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.18848167539267</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Z112" t="s">
         <v>251</v>
@@ -12013,10 +12013,10 @@
         <v>0.568566088284334</v>
       </c>
       <c r="X113" t="n">
-        <v>0.298429319371728</v>
+        <v>0.6</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -12105,10 +12105,10 @@
         <v>-0.542522791396529</v>
       </c>
       <c r="X114" t="n">
-        <v>0.403141361256544</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -12197,10 +12197,10 @@
         <v>0.0860708681660097</v>
       </c>
       <c r="X115" t="n">
-        <v>0.387434554973822</v>
+        <v>0.778947368421053</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.109947643979058</v>
+        <v>0.5</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12289,10 +12289,10 @@
         <v>0.301618697124638</v>
       </c>
       <c r="X116" t="n">
-        <v>0.350785340314136</v>
+        <v>0.705263157894737</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12381,10 +12381,10 @@
         <v>0.593517326850719</v>
       </c>
       <c r="X117" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12473,10 +12473,10 @@
         <v>2.11752945293961</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12565,10 +12565,10 @@
         <v>0.740166043193769</v>
       </c>
       <c r="X119" t="n">
-        <v>0.481675392670157</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.115183246073298</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Z119" t="s">
         <v>265</v>
@@ -12657,10 +12657,10 @@
         <v>-1.55757702974453</v>
       </c>
       <c r="X120" t="n">
-        <v>0.424083769633508</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12749,10 +12749,10 @@
         <v>3.55443175563066</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.0842105263157895</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -12841,10 +12841,10 @@
         <v>1.44122177367176</v>
       </c>
       <c r="X122" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -12933,10 +12933,10 @@
         <v>-0.0954843275497425</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -13025,10 +13025,10 @@
         <v>1.74083610461479</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -13117,10 +13117,10 @@
         <v>1.32535022827331</v>
       </c>
       <c r="X125" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -13209,10 +13209,10 @@
         <v>-1.21995136594519</v>
       </c>
       <c r="X126" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13301,10 +13301,10 @@
         <v>3.26563930978127</v>
       </c>
       <c r="X127" t="n">
-        <v>0.031413612565445</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13393,10 +13393,10 @@
         <v>4.70446630050296</v>
       </c>
       <c r="X128" t="n">
-        <v>0.00523560209424084</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13485,10 +13485,10 @@
         <v>-0.444308870135673</v>
       </c>
       <c r="X129" t="n">
-        <v>0.382198952879581</v>
+        <v>0.768421052631579</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13577,7 +13577,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="Y130" t="n">
         <v>0</v>
@@ -13669,10 +13669,10 @@
         <v>-0.629278218395715</v>
       </c>
       <c r="X131" t="n">
-        <v>0.120418848167539</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13761,10 +13761,10 @@
         <v>-0.253490537771068</v>
       </c>
       <c r="X132" t="n">
-        <v>0.136125654450262</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -13853,10 +13853,10 @@
         <v>1.33960099832677</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -13945,10 +13945,10 @@
         <v>-0.684540482183607</v>
       </c>
       <c r="X134" t="n">
-        <v>0.136125654450262</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0732984293193717</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -14037,10 +14037,10 @@
         <v>1.97695648789979</v>
       </c>
       <c r="X135" t="n">
-        <v>0.25130890052356</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.104712041884817</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -14129,10 +14129,10 @@
         <v>-1.03377266903058</v>
       </c>
       <c r="X136" t="n">
-        <v>0.115183246073298</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -14221,10 +14221,10 @@
         <v>0.165387342375896</v>
       </c>
       <c r="X137" t="n">
-        <v>0.324607329842932</v>
+        <v>0.652631578947368</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14313,10 +14313,10 @@
         <v>2.74291100036865</v>
       </c>
       <c r="X138" t="n">
-        <v>0.256544502617801</v>
+        <v>0.515789473684211</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14405,10 +14405,10 @@
         <v>3.27869955262082</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14497,10 +14497,10 @@
         <v>1.85059621155035</v>
       </c>
       <c r="X140" t="n">
-        <v>0.25130890052356</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14589,10 +14589,10 @@
         <v>-2.97833611141424</v>
       </c>
       <c r="X141" t="n">
-        <v>0.31413612565445</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14681,10 +14681,10 @@
         <v>-1.85390543976904</v>
       </c>
       <c r="X142" t="n">
-        <v>0.476439790575916</v>
+        <v>0.957894736842105</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z142" t="s">
         <v>311</v>
@@ -14773,10 +14773,10 @@
         <v>4.05169787490543</v>
       </c>
       <c r="X143" t="n">
-        <v>0.104712041884817</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -14865,10 +14865,10 @@
         <v>2.76934099786615</v>
       </c>
       <c r="X144" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -14957,10 +14957,10 @@
         <v>-0.983496943266749</v>
       </c>
       <c r="X145" t="n">
-        <v>0.465968586387435</v>
+        <v>0.936842105263158</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.120418848167539</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -15049,10 +15049,10 @@
         <v>-0.0767725155416228</v>
       </c>
       <c r="X146" t="n">
-        <v>0.235602094240838</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -15141,10 +15141,10 @@
         <v>0.22015621417337</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -15233,10 +15233,10 @@
         <v>-1.77615629652214</v>
       </c>
       <c r="X148" t="n">
-        <v>0.455497382198953</v>
+        <v>0.91578947368421</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.120418848167539</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15325,10 +15325,10 @@
         <v>-1.45412274384078</v>
       </c>
       <c r="X149" t="n">
-        <v>0.178010471204188</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15417,10 +15417,10 @@
         <v>-0.670306427827744</v>
       </c>
       <c r="X150" t="n">
-        <v>0.31413612565445</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z150" t="s">
         <v>327</v>
@@ -15509,10 +15509,10 @@
         <v>1.04968009290889</v>
       </c>
       <c r="X151" t="n">
-        <v>0.115183246073298</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z151" t="s">
         <v>329</v>
@@ -15601,10 +15601,10 @@
         <v>-1.32958333404213</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0837696335078534</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z152" t="s">
         <v>331</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z153" t="s">
         <v>333</v>
@@ -15785,10 +15785,10 @@
         <v>-0.879816472236185</v>
       </c>
       <c r="X154" t="n">
-        <v>0.120418848167539</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0575916230366492</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Z154" t="s">
         <v>335</v>
@@ -15877,10 +15877,10 @@
         <v>-1.361693187751</v>
       </c>
       <c r="X155" t="n">
-        <v>0.329842931937173</v>
+        <v>0.663157894736842</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Z155" t="s">
         <v>337</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z156" t="s">
         <v>339</v>
@@ -16061,10 +16061,10 @@
         <v>1.73142052464413</v>
       </c>
       <c r="X157" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z157" t="s">
         <v>341</v>
@@ -16153,10 +16153,10 @@
         <v>-0.562022506960506</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.2</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z158" t="s">
         <v>343</v>
@@ -16245,10 +16245,10 @@
         <v>-0.895906599399313</v>
       </c>
       <c r="X159" t="n">
-        <v>0.12565445026178</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z159" t="s">
         <v>345</v>
@@ -16337,7 +16337,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X160" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y160" t="n">
         <v>0</v>
@@ -16429,10 +16429,10 @@
         <v>0.797230100866035</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z161" t="s">
         <v>349</v>
@@ -16521,10 +16521,10 @@
         <v>3.50723287985982</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.0418848167539267</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Z162" t="s">
         <v>351</v>
@@ -16613,10 +16613,10 @@
         <v>-1.53289301704194</v>
       </c>
       <c r="X163" t="n">
-        <v>0.115183246073298</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z163" t="s">
         <v>353</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0209424083769634</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Z164" t="s">
         <v>355</v>
@@ -16797,10 +16797,10 @@
         <v>0.127573437964177</v>
       </c>
       <c r="X165" t="n">
-        <v>0.198952879581152</v>
+        <v>0.4</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Z165" t="s">
         <v>357</v>
@@ -16889,10 +16889,10 @@
         <v>1.42228490134511</v>
       </c>
       <c r="X166" t="n">
-        <v>0.481675392670157</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.151832460732984</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Z166" t="s">
         <v>359</v>
@@ -16981,10 +16981,10 @@
         <v>1.95764602804195</v>
       </c>
       <c r="X167" t="n">
-        <v>0.25130890052356</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.136125654450262</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Z167" t="s">
         <v>361</v>
@@ -17073,10 +17073,10 @@
         <v>0.953316248828752</v>
       </c>
       <c r="X168" t="n">
-        <v>0.345549738219895</v>
+        <v>0.694736842105263</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.12565445026178</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z168" t="s">
         <v>363</v>
@@ -17165,10 +17165,10 @@
         <v>1.17492553787974</v>
       </c>
       <c r="X169" t="n">
-        <v>0.136125654450262</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Z169" t="s">
         <v>365</v>
@@ -17257,10 +17257,10 @@
         <v>-2.774668794238</v>
       </c>
       <c r="X170" t="n">
-        <v>0.277486910994764</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z170" t="s">
         <v>367</v>
@@ -17349,10 +17349,10 @@
         <v>-0.650803863088589</v>
       </c>
       <c r="X171" t="n">
-        <v>0.240837696335079</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Z171" t="s">
         <v>369</v>
@@ -17441,10 +17441,10 @@
         <v>0.626429862819237</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0523560209424084</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z172" t="s">
         <v>371</v>
@@ -17536,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z173" t="s">
         <v>373</v>
@@ -17625,10 +17625,10 @@
         <v>-1.17919451590164</v>
       </c>
       <c r="X174" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.0261780104712042</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Z174" t="s">
         <v>375</v>
@@ -17717,10 +17717,10 @@
         <v>1.8708347527256</v>
       </c>
       <c r="X175" t="n">
-        <v>0.476439790575916</v>
+        <v>0.957894736842105</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.214659685863874</v>
+        <v>0.976190476190476</v>
       </c>
       <c r="Z175" t="s">
         <v>377</v>
@@ -17809,10 +17809,10 @@
         <v>0.259745050827734</v>
       </c>
       <c r="X176" t="n">
-        <v>0.450261780104712</v>
+        <v>0.905263157894737</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.146596858638743</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z176" t="s">
         <v>379</v>
@@ -17901,10 +17901,10 @@
         <v>-3.19202735288059</v>
       </c>
       <c r="X177" t="n">
-        <v>0.408376963350785</v>
+        <v>0.821052631578947</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Z177" t="s">
         <v>381</v>
@@ -17993,10 +17993,10 @@
         <v>-2.18277664231718</v>
       </c>
       <c r="X178" t="n">
-        <v>0.06282722513089</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.00523560209424084</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Z178" t="s">
         <v>383</v>
@@ -18085,10 +18085,10 @@
         <v>-5.97445117011302</v>
       </c>
       <c r="X179" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.0947368421052632</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z179" t="s">
         <v>385</v>
@@ -18177,10 +18177,10 @@
         <v>-0.00695891769901142</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0890052356020942</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z180" t="s">
         <v>387</v>
@@ -18269,10 +18269,10 @@
         <v>2.29127591263699</v>
       </c>
       <c r="X181" t="n">
-        <v>0.0680628272251309</v>
+        <v>0.136842105263158</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z181" t="s">
         <v>389</v>
@@ -18361,10 +18361,10 @@
         <v>0.0302705288262237</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.0471204188481675</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z182" t="s">
         <v>391</v>
@@ -18453,10 +18453,10 @@
         <v>-3.72734874075815</v>
       </c>
       <c r="X183" t="n">
-        <v>0.12565445026178</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z183" t="s">
         <v>393</v>
@@ -18545,10 +18545,10 @@
         <v>-1.44739830699583</v>
       </c>
       <c r="X184" t="n">
-        <v>0.329842931937173</v>
+        <v>0.663157894736842</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0994764397905759</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Z184" t="s">
         <v>395</v>
@@ -18637,10 +18637,10 @@
         <v>-0.66309804414515</v>
       </c>
       <c r="X185" t="n">
-        <v>0.424083769633508</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.146596858638743</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z185" t="s">
         <v>397</v>
@@ -18729,10 +18729,10 @@
         <v>0.607268383969413</v>
       </c>
       <c r="X186" t="n">
-        <v>0.37696335078534</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.0942408376963351</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Z186" t="s">
         <v>399</v>
@@ -18821,10 +18821,10 @@
         <v>-1.6954138387461</v>
       </c>
       <c r="X187" t="n">
-        <v>0.340314136125654</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.0785340314136126</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z187" t="s">
         <v>401</v>
@@ -18913,10 +18913,10 @@
         <v>-3.22259305821578</v>
       </c>
       <c r="X188" t="n">
-        <v>0.115183246073298</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.00523560209424084</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Z188" t="s">
         <v>403</v>
@@ -19005,10 +19005,10 @@
         <v>-2.34312282342773</v>
       </c>
       <c r="X189" t="n">
-        <v>0.120418848167539</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.0366492146596859</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z189" t="s">
         <v>405</v>
@@ -19097,10 +19097,10 @@
         <v>4.62559944196771</v>
       </c>
       <c r="X190" t="n">
-        <v>0.303664921465969</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.183246073298429</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z190" t="s">
         <v>407</v>
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.031413612565445</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z191" t="s">
         <v>409</v>
@@ -19281,10 +19281,10 @@
         <v>-2.60986673256328</v>
       </c>
       <c r="X192" t="n">
-        <v>0.120418848167539</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.0104712041884817</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Z192" t="s">
         <v>411</v>
@@ -19479,10 +19479,10 @@
         <v>-0.602654419303126</v>
       </c>
       <c r="X2" t="n">
-        <v>0.143646408839779</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.839779005524862</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -19571,10 +19571,10 @@
         <v>-0.485476067307287</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.0382775119617225</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -19663,10 +19663,10 @@
         <v>1.20042463194258</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.38121546961326</v>
+        <v>0.330143540669856</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -19755,10 +19755,10 @@
         <v>0.426685258610137</v>
       </c>
       <c r="X5" t="n">
-        <v>0.121546961325967</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.712707182320442</v>
+        <v>0.617224880382775</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -19847,10 +19847,10 @@
         <v>-1.29508057905384</v>
       </c>
       <c r="X6" t="n">
-        <v>0.110497237569061</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.580110497237569</v>
+        <v>0.502392344497608</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -19939,10 +19939,10 @@
         <v>-3.25719357850992</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.204419889502762</v>
+        <v>0.177033492822967</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -20031,10 +20031,10 @@
         <v>-0.276250050183464</v>
       </c>
       <c r="X8" t="n">
-        <v>0.160220994475138</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0.866028708133971</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -20123,10 +20123,10 @@
         <v>-5.5973159934859</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.187845303867403</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -20215,10 +20215,10 @@
         <v>3.78909425565721</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -20307,10 +20307,10 @@
         <v>0.288291913537995</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.171270718232044</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -20399,10 +20399,10 @@
         <v>0.239527686072801</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0718232044198895</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.635359116022099</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -20491,10 +20491,10 @@
         <v>1.6040946498464</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.220994475138122</v>
+        <v>0.191387559808612</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -20583,10 +20583,10 @@
         <v>0.359218916414398</v>
       </c>
       <c r="X14" t="n">
-        <v>0.132596685082873</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.635359116022099</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -20675,10 +20675,10 @@
         <v>0.0482472805656331</v>
       </c>
       <c r="X15" t="n">
-        <v>0.138121546961326</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.81767955801105</v>
+        <v>0.708133971291866</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -20767,10 +20767,10 @@
         <v>0.691668565234416</v>
       </c>
       <c r="X16" t="n">
-        <v>0.171270718232044</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.10497237569061</v>
+        <v>0.956937799043062</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -20859,10 +20859,10 @@
         <v>-1.98043738345251</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.12707182320442</v>
+        <v>0.110047846889952</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -20951,10 +20951,10 @@
         <v>1.09190707323042</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.375690607734807</v>
+        <v>0.325358851674641</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.209944751381215</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -21135,10 +21135,10 @@
         <v>-0.665936137182658</v>
       </c>
       <c r="X20" t="n">
-        <v>0.154696132596685</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.87292817679558</v>
+        <v>0.755980861244019</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -21227,10 +21227,10 @@
         <v>0.167891304392571</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0828729281767956</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.386740331491713</v>
+        <v>0.334928229665072</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -21319,10 +21319,10 @@
         <v>2.28830958548505</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.801104972375691</v>
+        <v>0.69377990430622</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.25414364640884</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z23" t="s">
         <v>422</v>
@@ -21503,10 +21503,10 @@
         <v>0.060539767477774</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.359116022099448</v>
+        <v>0.311004784688995</v>
       </c>
       <c r="Z24" t="s">
         <v>73</v>
@@ -21595,10 +21595,10 @@
         <v>0.526684238932666</v>
       </c>
       <c r="X25" t="n">
-        <v>0.143646408839779</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.889502762430939</v>
+        <v>0.770334928229665</v>
       </c>
       <c r="Z25" t="s">
         <v>75</v>
@@ -21687,10 +21687,10 @@
         <v>0.171773774120673</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.25414364640884</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z26" t="s">
         <v>77</v>
@@ -21779,10 +21779,10 @@
         <v>-0.779314005704286</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.0478468899521531</v>
       </c>
       <c r="Z27" t="s">
         <v>79</v>
@@ -21871,10 +21871,10 @@
         <v>-8.57394703718854</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.0813397129186603</v>
       </c>
       <c r="Z28" t="s">
         <v>81</v>
@@ -21963,10 +21963,10 @@
         <v>1.05352447890499</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.265193370165746</v>
+        <v>0.229665071770335</v>
       </c>
       <c r="Z29" t="s">
         <v>83</v>
@@ -22055,10 +22055,10 @@
         <v>0.394570542673483</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.215469613259669</v>
+        <v>0.186602870813397</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -22147,10 +22147,10 @@
         <v>-3.13427365666117</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.00552486187845304</v>
+        <v>0.00478468899521531</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -22239,10 +22239,10 @@
         <v>-0.552426978821872</v>
       </c>
       <c r="X32" t="n">
-        <v>0.176795580110497</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.02209944751381</v>
+        <v>0.885167464114832</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -22331,10 +22331,10 @@
         <v>0.562622285717531</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0662983425414365</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.303867403314917</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -22423,10 +22423,10 @@
         <v>-3.38544718905454</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.342541436464088</v>
+        <v>0.296650717703349</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -22515,10 +22515,10 @@
         <v>1.29601785482565</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.0813397129186603</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -22607,10 +22607,10 @@
         <v>0.0439606327235599</v>
       </c>
       <c r="X36" t="n">
-        <v>0.209944751381215</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.12154696132597</v>
+        <v>0.971291866028708</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -22699,10 +22699,10 @@
         <v>2.01259975789761</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.613259668508287</v>
+        <v>0.5311004784689</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -22791,10 +22791,10 @@
         <v>0.0592268268252894</v>
       </c>
       <c r="X38" t="n">
-        <v>0.176795580110497</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.03867403314917</v>
+        <v>0.899521531100478</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -22883,10 +22883,10 @@
         <v>1.65074599490062</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.679558011049724</v>
+        <v>0.588516746411483</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -22975,10 +22975,10 @@
         <v>-0.563102270925706</v>
       </c>
       <c r="X40" t="n">
-        <v>0.198895027624309</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.11049723756906</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -23067,10 +23067,10 @@
         <v>-0.258095405942401</v>
       </c>
       <c r="X41" t="n">
-        <v>0.18232044198895</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.01657458563536</v>
+        <v>0.880382775119617</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -23159,10 +23159,10 @@
         <v>0.103050567332093</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.50828729281768</v>
+        <v>0.440191387559809</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -23251,10 +23251,10 @@
         <v>-1.3121052229521</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -23343,10 +23343,10 @@
         <v>0.207189759966209</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.325966850828729</v>
+        <v>0.282296650717703</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -23435,10 +23435,10 @@
         <v>-0.26524945034931</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.226519337016575</v>
+        <v>0.196172248803828</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -23527,10 +23527,10 @@
         <v>-0.496043926341758</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.287292817679558</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -23619,10 +23619,10 @@
         <v>0.598323894985766</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0110497237569061</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.132596685082873</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -23711,10 +23711,10 @@
         <v>0.456158056087205</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.458563535911602</v>
+        <v>0.397129186602871</v>
       </c>
       <c r="Z48" t="s">
         <v>125</v>
@@ -23803,10 +23803,10 @@
         <v>-0.699829159209047</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.076555023923445</v>
       </c>
       <c r="Z49" t="s">
         <v>127</v>
@@ -23895,10 +23895,10 @@
         <v>6.95631048893715</v>
       </c>
       <c r="X50" t="n">
-        <v>0.00552486187845304</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.276243093922652</v>
+        <v>0.239234449760766</v>
       </c>
       <c r="Z50" t="s">
         <v>129</v>
@@ -23987,10 +23987,10 @@
         <v>0.0785196434945476</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.149171270718232</v>
+        <v>0.129186602870813</v>
       </c>
       <c r="Z51" t="s">
         <v>131</v>
@@ -24079,10 +24079,10 @@
         <v>-6.22729742576852</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z52" t="s">
         <v>133</v>
@@ -24171,10 +24171,10 @@
         <v>-2.52386157336063</v>
       </c>
       <c r="X53" t="n">
-        <v>0.132596685082873</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.784530386740331</v>
+        <v>0.679425837320574</v>
       </c>
       <c r="Z53" t="s">
         <v>135</v>
@@ -24263,10 +24263,10 @@
         <v>-0.836212006450833</v>
       </c>
       <c r="X54" t="n">
-        <v>0.138121546961326</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.74585635359116</v>
+        <v>0.645933014354067</v>
       </c>
       <c r="Z54" t="s">
         <v>137</v>
@@ -24355,10 +24355,10 @@
         <v>0.690748531372393</v>
       </c>
       <c r="X55" t="n">
-        <v>0.138121546961326</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.917127071823204</v>
+        <v>0.794258373205742</v>
       </c>
       <c r="Z55" t="s">
         <v>139</v>
@@ -24447,10 +24447,10 @@
         <v>1.18574696855258</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.552486187845304</v>
+        <v>0.478468899521531</v>
       </c>
       <c r="Z56" t="s">
         <v>141</v>
@@ -24539,10 +24539,10 @@
         <v>1.08710604933607</v>
       </c>
       <c r="X57" t="n">
-        <v>0.160220994475138</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.917127071823204</v>
+        <v>0.794258373205742</v>
       </c>
       <c r="Z57" t="s">
         <v>143</v>
@@ -24631,10 +24631,10 @@
         <v>3.18383734839325</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.430939226519337</v>
+        <v>0.373205741626794</v>
       </c>
       <c r="Z58" t="s">
         <v>145</v>
@@ -24723,10 +24723,10 @@
         <v>1.61231914432623</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.176795580110497</v>
+        <v>0.15311004784689</v>
       </c>
       <c r="Z59" t="s">
         <v>149</v>
@@ -24815,10 +24815,10 @@
         <v>0.200992473394763</v>
       </c>
       <c r="X60" t="n">
-        <v>0.12707182320442</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.640883977900553</v>
+        <v>0.555023923444976</v>
       </c>
       <c r="Z60" t="s">
         <v>151</v>
@@ -24907,10 +24907,10 @@
         <v>0.857135911476232</v>
       </c>
       <c r="X61" t="n">
-        <v>0.143646408839779</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.07182320441989</v>
+        <v>0.92822966507177</v>
       </c>
       <c r="Z61" t="s">
         <v>155</v>
@@ -24999,10 +24999,10 @@
         <v>2.08547721092563</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.220994475138122</v>
+        <v>0.191387559808612</v>
       </c>
       <c r="Z62" t="s">
         <v>157</v>
@@ -25091,7 +25091,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -25183,10 +25183,10 @@
         <v>-2.07192649593623</v>
       </c>
       <c r="X64" t="n">
-        <v>0.12707182320442</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.569060773480663</v>
+        <v>0.492822966507177</v>
       </c>
       <c r="Z64" t="s">
         <v>161</v>
@@ -25275,10 +25275,10 @@
         <v>-2.80129735776595</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.187845303867403</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z65" t="s">
         <v>163</v>
@@ -25367,10 +25367,10 @@
         <v>-0.732662973060227</v>
       </c>
       <c r="X66" t="n">
-        <v>0.132596685082873</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.419889502762431</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Z66" t="s">
         <v>165</v>
@@ -25459,10 +25459,10 @@
         <v>0.227190356062099</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.198895027624309</v>
+        <v>0.172248803827751</v>
       </c>
       <c r="Z67" t="s">
         <v>167</v>
@@ -25551,10 +25551,10 @@
         <v>-1.53733838040294</v>
       </c>
       <c r="X68" t="n">
-        <v>0.121546961325967</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.464088397790055</v>
+        <v>0.401913875598086</v>
       </c>
       <c r="Z68" t="s">
         <v>169</v>
@@ -25643,10 +25643,10 @@
         <v>1.67252214976917</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.657458563535912</v>
+        <v>0.569377990430622</v>
       </c>
       <c r="Z69" t="s">
         <v>171</v>
@@ -25735,10 +25735,10 @@
         <v>1.52763446863637</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0994475138121547</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.895027624309392</v>
+        <v>0.77511961722488</v>
       </c>
       <c r="Z70" t="s">
         <v>173</v>
@@ -25827,10 +25827,10 @@
         <v>-0.827944270908956</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.076555023923445</v>
       </c>
       <c r="Z71" t="s">
         <v>175</v>
@@ -25919,10 +25919,10 @@
         <v>-1.02309466726574</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.132596685082873</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z72" t="s">
         <v>177</v>
@@ -26011,10 +26011,10 @@
         <v>1.30102132819231</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.154696132596685</v>
+        <v>0.133971291866029</v>
       </c>
       <c r="Z73" t="s">
         <v>179</v>
@@ -26103,10 +26103,10 @@
         <v>5.37691818414843</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.270718232044199</v>
+        <v>0.23444976076555</v>
       </c>
       <c r="Z74" t="s">
         <v>181</v>
@@ -26195,10 +26195,10 @@
         <v>-1.10279039163057</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.187845303867403</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z75" t="s">
         <v>183</v>
@@ -26287,10 +26287,10 @@
         <v>0.108842707822781</v>
       </c>
       <c r="X76" t="n">
-        <v>0.104972375690608</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.386740331491713</v>
+        <v>0.334928229665072</v>
       </c>
       <c r="Z76" t="s">
         <v>185</v>
@@ -26379,10 +26379,10 @@
         <v>-1.28212465803785</v>
       </c>
       <c r="X77" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.30939226519337</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z77" t="s">
         <v>187</v>
@@ -26471,10 +26471,10 @@
         <v>-0.238168374556334</v>
       </c>
       <c r="X78" t="n">
-        <v>0.209944751381215</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.11049723756906</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z78" t="s">
         <v>189</v>
@@ -26563,10 +26563,10 @@
         <v>-1.69820080759575</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.138121546961326</v>
+        <v>0.119617224880383</v>
       </c>
       <c r="Z79" t="s">
         <v>191</v>
@@ -26655,10 +26655,10 @@
         <v>-0.0504020259603477</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0662983425414365</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.281767955801105</v>
+        <v>0.244019138755981</v>
       </c>
       <c r="Z80" t="s">
         <v>193</v>
@@ -26747,10 +26747,10 @@
         <v>0.358102648296479</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.740331491712707</v>
+        <v>0.641148325358852</v>
       </c>
       <c r="Z81" t="s">
         <v>195</v>
@@ -26839,10 +26839,10 @@
         <v>2.4672474061722</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.281767955801105</v>
+        <v>0.244019138755981</v>
       </c>
       <c r="Z82" t="s">
         <v>201</v>
@@ -26931,10 +26931,10 @@
         <v>-0.0996656990896358</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0883977900552486</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.524861878453039</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Z83" t="s">
         <v>203</v>
@@ -27023,10 +27023,10 @@
         <v>5.20825448011626</v>
       </c>
       <c r="X84" t="n">
-        <v>0.00552486187845304</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.132596685082873</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z84" t="s">
         <v>424</v>
@@ -27115,10 +27115,10 @@
         <v>0.0836497797350279</v>
       </c>
       <c r="X85" t="n">
-        <v>0.18232044198895</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.02762430939227</v>
+        <v>0.889952153110048</v>
       </c>
       <c r="Z85" t="s">
         <v>205</v>
@@ -27210,7 +27210,7 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.121546961325967</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z86" t="s">
         <v>426</v>
@@ -27299,10 +27299,10 @@
         <v>5.14256852871605</v>
       </c>
       <c r="X87" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.370165745856354</v>
+        <v>0.320574162679426</v>
       </c>
       <c r="Z87" t="s">
         <v>207</v>
@@ -27391,10 +27391,10 @@
         <v>-0.138637409807236</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0662983425414365</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.430939226519337</v>
+        <v>0.373205741626794</v>
       </c>
       <c r="Z88" t="s">
         <v>209</v>
@@ -27483,10 +27483,10 @@
         <v>-1.14058422530521</v>
       </c>
       <c r="X89" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.160220994475138</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="Z89" t="s">
         <v>211</v>
@@ -27575,10 +27575,10 @@
         <v>4.72772844631368</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0110497237569061</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.30939226519337</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z90" t="s">
         <v>428</v>
@@ -27667,10 +27667,10 @@
         <v>-0.463745360706046</v>
       </c>
       <c r="X91" t="n">
-        <v>0.138121546961326</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.983425414364641</v>
+        <v>0.851674641148325</v>
       </c>
       <c r="Z91" t="s">
         <v>213</v>
@@ -27759,10 +27759,10 @@
         <v>-0.354559280663103</v>
       </c>
       <c r="X92" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.243093922651934</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Z92" t="s">
         <v>215</v>
@@ -27851,10 +27851,10 @@
         <v>3.37933968059395</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.116022099447514</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z93" t="s">
         <v>217</v>
@@ -27943,10 +27943,10 @@
         <v>-0.53534782398895</v>
       </c>
       <c r="X94" t="n">
-        <v>0.154696132596685</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.87292817679558</v>
+        <v>0.755980861244019</v>
       </c>
       <c r="Z94" t="s">
         <v>219</v>
@@ -28035,10 +28035,10 @@
         <v>6.97637458033625</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.580110497237569</v>
+        <v>0.502392344497608</v>
       </c>
       <c r="Z95" t="s">
         <v>221</v>
@@ -28127,10 +28127,10 @@
         <v>2.10651054232218</v>
       </c>
       <c r="X96" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.30939226519337</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z96" t="s">
         <v>223</v>
@@ -28219,10 +28219,10 @@
         <v>1.23769708570464</v>
       </c>
       <c r="X97" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.475138121546961</v>
+        <v>0.411483253588517</v>
       </c>
       <c r="Z97" t="s">
         <v>225</v>
@@ -28311,10 +28311,10 @@
         <v>-0.277579862993631</v>
       </c>
       <c r="X98" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.624309392265193</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="Z98" t="s">
         <v>227</v>
@@ -28403,10 +28403,10 @@
         <v>-0.587508680539259</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.248618784530387</v>
+        <v>0.215311004784689</v>
       </c>
       <c r="Z99" t="s">
         <v>229</v>
@@ -28495,10 +28495,10 @@
         <v>2.17867678316851</v>
       </c>
       <c r="X100" t="n">
-        <v>0.110497237569061</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.00552486187845</v>
+        <v>0.870813397129187</v>
       </c>
       <c r="Z100" t="s">
         <v>233</v>
@@ -28587,10 +28587,10 @@
         <v>5.59590856131185</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.287292817679558</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z101" t="s">
         <v>235</v>
@@ -28679,10 +28679,10 @@
         <v>0.573543685320672</v>
       </c>
       <c r="X102" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.30939226519337</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z102" t="s">
         <v>237</v>
@@ -28771,10 +28771,10 @@
         <v>-1.57482781148388</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.116022099447514</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z103" t="s">
         <v>239</v>
@@ -28863,10 +28863,10 @@
         <v>-4.18917907284025</v>
       </c>
       <c r="X104" t="n">
-        <v>0.149171270718232</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.414364640883978</v>
+        <v>0.358851674641148</v>
       </c>
       <c r="Z104" t="s">
         <v>241</v>
@@ -28955,10 +28955,10 @@
         <v>0.682035656794528</v>
       </c>
       <c r="X105" t="n">
-        <v>0.160220994475138</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.04972375690608</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Z105" t="s">
         <v>243</v>
@@ -29047,10 +29047,10 @@
         <v>-1.21990086335483</v>
       </c>
       <c r="X106" t="n">
-        <v>0.149171270718232</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.790055248618785</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Z106" t="s">
         <v>245</v>
@@ -29139,10 +29139,10 @@
         <v>-0.822946500599603</v>
       </c>
       <c r="X107" t="n">
-        <v>0.143646408839779</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.646408839779006</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="Z107" t="s">
         <v>247</v>
@@ -29231,10 +29231,10 @@
         <v>-1.30191163975078</v>
       </c>
       <c r="X108" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.292817679558011</v>
+        <v>0.253588516746411</v>
       </c>
       <c r="Z108" t="s">
         <v>249</v>
@@ -29323,10 +29323,10 @@
         <v>-1.20595557050491</v>
       </c>
       <c r="X109" t="n">
-        <v>0.198895027624309</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.11049723756906</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z109" t="s">
         <v>251</v>
@@ -29415,10 +29415,10 @@
         <v>-0.0488144472619666</v>
       </c>
       <c r="X110" t="n">
-        <v>0.104972375690608</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.773480662983425</v>
+        <v>0.669856459330144</v>
       </c>
       <c r="Z110" t="s">
         <v>253</v>
@@ -29507,10 +29507,10 @@
         <v>-0.365898511360703</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.635359116022099</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z111" t="s">
         <v>255</v>
@@ -29599,10 +29599,10 @@
         <v>-0.811377653461767</v>
       </c>
       <c r="X112" t="n">
-        <v>0.116022099447514</v>
+        <v>0.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.640883977900553</v>
+        <v>0.555023923444976</v>
       </c>
       <c r="Z112" t="s">
         <v>257</v>
@@ -29691,10 +29691,10 @@
         <v>-1.2301037866463</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0718232044198895</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.502762430939227</v>
+        <v>0.435406698564593</v>
       </c>
       <c r="Z113" t="s">
         <v>259</v>
@@ -29783,10 +29783,10 @@
         <v>-1.39901503482874</v>
       </c>
       <c r="X114" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.0813397129186603</v>
       </c>
       <c r="Z114" t="s">
         <v>261</v>
@@ -29875,10 +29875,10 @@
         <v>-3.15133654048853</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="Z115" t="s">
         <v>263</v>
@@ -29967,10 +29967,10 @@
         <v>-0.989031952435809</v>
       </c>
       <c r="X116" t="n">
-        <v>0.121546961325967</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.767955801104972</v>
+        <v>0.665071770334928</v>
       </c>
       <c r="Z116" t="s">
         <v>265</v>
@@ -30059,10 +30059,10 @@
         <v>0.767513035716729</v>
       </c>
       <c r="X117" t="n">
-        <v>0.104972375690608</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.751381215469613</v>
+        <v>0.650717703349282</v>
       </c>
       <c r="Z117" t="s">
         <v>267</v>
@@ -30151,10 +30151,10 @@
         <v>-0.605226352564819</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.226519337016575</v>
+        <v>0.196172248803828</v>
       </c>
       <c r="Z118" t="s">
         <v>269</v>
@@ -30243,10 +30243,10 @@
         <v>4.09778288333379</v>
       </c>
       <c r="X119" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.331491712707182</v>
+        <v>0.287081339712919</v>
       </c>
       <c r="Z119" t="s">
         <v>271</v>
@@ -30335,10 +30335,10 @@
         <v>1.53017984206251</v>
       </c>
       <c r="X120" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.237569060773481</v>
+        <v>0.205741626794258</v>
       </c>
       <c r="Z120" t="s">
         <v>273</v>
@@ -30427,10 +30427,10 @@
         <v>-6.8747003075096</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.00552486187845304</v>
+        <v>0.00478468899521531</v>
       </c>
       <c r="Z121" t="s">
         <v>275</v>
@@ -30519,10 +30519,10 @@
         <v>-0.583680396828861</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z122" t="s">
         <v>277</v>
@@ -30611,10 +30611,10 @@
         <v>1.14310679617831</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.138121546961326</v>
+        <v>0.119617224880383</v>
       </c>
       <c r="Z123" t="s">
         <v>279</v>
@@ -30703,10 +30703,10 @@
         <v>0.270762345094316</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.243093922651934</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Z124" t="s">
         <v>281</v>
@@ -30795,10 +30795,10 @@
         <v>0.580144569229614</v>
       </c>
       <c r="X125" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.143646408839779</v>
+        <v>0.124401913875598</v>
       </c>
       <c r="Z125" t="s">
         <v>283</v>
@@ -30887,10 +30887,10 @@
         <v>-0.726617812073077</v>
       </c>
       <c r="X126" t="n">
-        <v>0.0828729281767956</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.591160220994475</v>
+        <v>0.511961722488038</v>
       </c>
       <c r="Z126" t="s">
         <v>285</v>
@@ -30982,7 +30982,7 @@
         <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.171270718232044</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z127" t="s">
         <v>287</v>
@@ -31071,10 +31071,10 @@
         <v>3.32810097066753</v>
       </c>
       <c r="X128" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.348066298342541</v>
+        <v>0.301435406698565</v>
       </c>
       <c r="Z128" t="s">
         <v>289</v>
@@ -31163,10 +31163,10 @@
         <v>1.50973158451299</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.320441988950276</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="Z129" t="s">
         <v>291</v>
@@ -31255,10 +31255,10 @@
         <v>0.241425442060251</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0773480662983425</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.287292817679558</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z130" t="s">
         <v>295</v>
@@ -31347,10 +31347,10 @@
         <v>-1.25952652967368</v>
       </c>
       <c r="X131" t="n">
-        <v>0.110497237569061</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.56353591160221</v>
+        <v>0.488038277511962</v>
       </c>
       <c r="Z131" t="s">
         <v>297</v>
@@ -31439,10 +31439,10 @@
         <v>-0.317177824622332</v>
       </c>
       <c r="X132" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.0994475138121547</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="Z132" t="s">
         <v>299</v>
@@ -31531,10 +31531,10 @@
         <v>-0.710715960722362</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.43646408839779</v>
+        <v>0.37799043062201</v>
       </c>
       <c r="Z133" t="s">
         <v>301</v>
@@ -31626,7 +31626,7 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.209944751381215</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Z134" t="s">
         <v>430</v>
@@ -31715,10 +31715,10 @@
         <v>-1.31194418777896</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.397790055248619</v>
+        <v>0.344497607655502</v>
       </c>
       <c r="Z135" t="s">
         <v>303</v>
@@ -31807,10 +31807,10 @@
         <v>3.05345475932888</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.0813397129186603</v>
       </c>
       <c r="Z136" t="s">
         <v>305</v>
@@ -31899,10 +31899,10 @@
         <v>-0.765024684396575</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.668508287292818</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="Z137" t="s">
         <v>307</v>
@@ -31991,10 +31991,10 @@
         <v>2.24140083316179</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.408839779005525</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="Z138" t="s">
         <v>309</v>
@@ -32083,10 +32083,10 @@
         <v>0.618547086669044</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0828729281767956</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.43646408839779</v>
+        <v>0.37799043062201</v>
       </c>
       <c r="Z139" t="s">
         <v>311</v>
@@ -32175,10 +32175,10 @@
         <v>-0.511335696047303</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.193370165745856</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="Z140" t="s">
         <v>313</v>
@@ -32267,10 +32267,10 @@
         <v>-1.96204366757506</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.116022099447514</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z141" t="s">
         <v>315</v>
@@ -32359,10 +32359,10 @@
         <v>-0.422267881062998</v>
       </c>
       <c r="X142" t="n">
-        <v>0.12707182320442</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.767955801104972</v>
+        <v>0.665071770334928</v>
       </c>
       <c r="Z142" t="s">
         <v>317</v>
@@ -32451,10 +32451,10 @@
         <v>1.13489483313721</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.574585635359116</v>
+        <v>0.497607655502392</v>
       </c>
       <c r="Z143" t="s">
         <v>319</v>
@@ -32543,10 +32543,10 @@
         <v>-2.69346462442136</v>
       </c>
       <c r="X144" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0718232044198895</v>
+        <v>0.062200956937799</v>
       </c>
       <c r="Z144" t="s">
         <v>321</v>
@@ -32635,10 +32635,10 @@
         <v>1.29674489188866</v>
       </c>
       <c r="X145" t="n">
-        <v>0.12707182320442</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.834254143646409</v>
+        <v>0.722488038277512</v>
       </c>
       <c r="Z145" t="s">
         <v>323</v>
@@ -32727,10 +32727,10 @@
         <v>-0.81833352505485</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.232044198895028</v>
+        <v>0.200956937799043</v>
       </c>
       <c r="Z146" t="s">
         <v>325</v>
@@ -32819,10 +32819,10 @@
         <v>0.0333355579413981</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0828729281767956</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.602209944751381</v>
+        <v>0.521531100478469</v>
       </c>
       <c r="Z147" t="s">
         <v>327</v>
@@ -32911,10 +32911,10 @@
         <v>-0.791092974981135</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.215469613259669</v>
+        <v>0.186602870813397</v>
       </c>
       <c r="Z148" t="s">
         <v>329</v>
@@ -33003,10 +33003,10 @@
         <v>1.5466558632306</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.165745856353591</v>
+        <v>0.143540669856459</v>
       </c>
       <c r="Z149" t="s">
         <v>331</v>
@@ -33095,10 +33095,10 @@
         <v>-2.7963508012681</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.237569060773481</v>
+        <v>0.205741626794258</v>
       </c>
       <c r="Z150" t="s">
         <v>333</v>
@@ -33187,10 +33187,10 @@
         <v>2.2587504239539</v>
       </c>
       <c r="X151" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.270718232044199</v>
+        <v>0.23444976076555</v>
       </c>
       <c r="Z151" t="s">
         <v>335</v>
@@ -33279,10 +33279,10 @@
         <v>0.949735166365221</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0718232044198895</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.535911602209945</v>
+        <v>0.464114832535885</v>
       </c>
       <c r="Z152" t="s">
         <v>337</v>
@@ -33371,10 +33371,10 @@
         <v>0.399052870039063</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z153" t="s">
         <v>339</v>
@@ -33463,10 +33463,10 @@
         <v>-0.0639137420872767</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.121546961325967</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z154" t="s">
         <v>343</v>
@@ -33555,10 +33555,10 @@
         <v>1.94291614030816</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.314917127071823</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Z155" t="s">
         <v>345</v>
@@ -33647,10 +33647,10 @@
         <v>-2.03863901920144</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.116022099447514</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z156" t="s">
         <v>349</v>
@@ -33739,10 +33739,10 @@
         <v>-0.486399210562943</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0441988950276243</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.447513812154696</v>
+        <v>0.38755980861244</v>
       </c>
       <c r="Z157" t="s">
         <v>351</v>
@@ -33831,10 +33831,10 @@
         <v>0.0692656070045868</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.121546961325967</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z158" t="s">
         <v>353</v>
@@ -33923,10 +33923,10 @@
         <v>2.08859268542025</v>
       </c>
       <c r="X159" t="n">
-        <v>0.0220994475138122</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.0239234449760766</v>
       </c>
       <c r="Z159" t="s">
         <v>355</v>
@@ -34015,10 +34015,10 @@
         <v>0.776829423856113</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.585635359116022</v>
+        <v>0.507177033492823</v>
       </c>
       <c r="Z160" t="s">
         <v>357</v>
@@ -34107,10 +34107,10 @@
         <v>-0.397609723727956</v>
       </c>
       <c r="X161" t="n">
-        <v>0.160220994475138</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="Y161" t="n">
-        <v>1.03867403314917</v>
+        <v>0.899521531100478</v>
       </c>
       <c r="Z161" t="s">
         <v>359</v>
@@ -34199,10 +34199,10 @@
         <v>-0.741523879965312</v>
       </c>
       <c r="X162" t="n">
-        <v>0.143646408839779</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.668508287292818</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="Z162" t="s">
         <v>361</v>
@@ -34291,10 +34291,10 @@
         <v>0.0839537194043222</v>
       </c>
       <c r="X163" t="n">
-        <v>0.132596685082873</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.674033149171271</v>
+        <v>0.583732057416268</v>
       </c>
       <c r="Z163" t="s">
         <v>363</v>
@@ -34383,10 +34383,10 @@
         <v>-0.472664812283283</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0939226519337017</v>
+        <v>0.404761904761905</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.513812154696133</v>
+        <v>0.444976076555024</v>
       </c>
       <c r="Z164" t="s">
         <v>365</v>
@@ -34475,10 +34475,10 @@
         <v>2.50196617985237</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.497237569060773</v>
+        <v>0.430622009569378</v>
       </c>
       <c r="Z165" t="s">
         <v>367</v>
@@ -34567,10 +34567,10 @@
         <v>0.589140347148682</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0718232044198895</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.50828729281768</v>
+        <v>0.440191387559809</v>
       </c>
       <c r="Z166" t="s">
         <v>369</v>
@@ -34659,10 +34659,10 @@
         <v>2.91861200274051</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.646408839779006</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="Z167" t="s">
         <v>373</v>
@@ -34751,10 +34751,10 @@
         <v>4.03574281107038</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0276243093922652</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.320441988950276</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="Z168" t="s">
         <v>375</v>
@@ -34843,10 +34843,10 @@
         <v>0.513808922331465</v>
       </c>
       <c r="X169" t="n">
-        <v>0.226519337016575</v>
+        <v>0.976190476190476</v>
       </c>
       <c r="Y169" t="n">
-        <v>1.14364640883978</v>
+        <v>0.990430622009569</v>
       </c>
       <c r="Z169" t="s">
         <v>377</v>
@@ -34935,10 +34935,10 @@
         <v>0.443546526577593</v>
       </c>
       <c r="X170" t="n">
-        <v>0.154696132596685</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.933701657458563</v>
+        <v>0.808612440191388</v>
       </c>
       <c r="Z170" t="s">
         <v>379</v>
@@ -35027,10 +35027,10 @@
         <v>2.49672817517429</v>
       </c>
       <c r="X171" t="n">
-        <v>0.104972375690608</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.839779005524862</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Z171" t="s">
         <v>381</v>
@@ -35119,10 +35119,10 @@
         <v>3.0537995300759</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.143646408839779</v>
+        <v>0.124401913875598</v>
       </c>
       <c r="Z172" t="s">
         <v>385</v>
@@ -35211,10 +35211,10 @@
         <v>0.11773320814571</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.25414364640884</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z173" t="s">
         <v>387</v>
@@ -35303,10 +35303,10 @@
         <v>0.316466447034751</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0165745856353591</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.259668508287293</v>
+        <v>0.22488038277512</v>
       </c>
       <c r="Z174" t="s">
         <v>389</v>
@@ -35395,10 +35395,10 @@
         <v>0.454942523118004</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0497237569060773</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.364640883977901</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="Z175" t="s">
         <v>391</v>
@@ -35487,10 +35487,10 @@
         <v>1.65380390733084</v>
       </c>
       <c r="X176" t="n">
-        <v>0.104972375690608</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.624309392265193</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="Z176" t="s">
         <v>395</v>
@@ -35579,10 +35579,10 @@
         <v>0.141467815370267</v>
       </c>
       <c r="X177" t="n">
-        <v>0.154696132596685</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.696132596685083</v>
+        <v>0.602870813397129</v>
       </c>
       <c r="Z177" t="s">
         <v>397</v>
@@ -35671,10 +35671,10 @@
         <v>-0.598636675070598</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0994475138121547</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.607734806629834</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="Z178" t="s">
         <v>399</v>
@@ -35763,10 +35763,10 @@
         <v>0.282825126114946</v>
       </c>
       <c r="X179" t="n">
-        <v>0.0828729281767956</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.464088397790055</v>
+        <v>0.401913875598086</v>
       </c>
       <c r="Z179" t="s">
         <v>401</v>
@@ -35855,10 +35855,10 @@
         <v>1.78640302099358</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0386740331491713</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.171270718232044</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z180" t="s">
         <v>405</v>
@@ -35947,10 +35947,10 @@
         <v>-0.489740628720643</v>
       </c>
       <c r="X181" t="n">
-        <v>0.193370165745856</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.01104972375691</v>
+        <v>0.875598086124402</v>
       </c>
       <c r="Z181" t="s">
         <v>407</v>
@@ -36039,10 +36039,10 @@
         <v>1.96149287724245</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0331491712707182</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.154696132596685</v>
+        <v>0.133971291866029</v>
       </c>
       <c r="Z182" t="s">
         <v>409</v>
@@ -36237,10 +36237,10 @@
         <v>1.35423354624753</v>
       </c>
       <c r="X2" t="n">
-        <v>0.240223463687151</v>
+        <v>0.452631578947368</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.849162011173184</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -36329,10 +36329,10 @@
         <v>-4.09718577448797</v>
       </c>
       <c r="X3" t="n">
-        <v>0.206703910614525</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0446927374301676</v>
+        <v>0.0382775119617225</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -36421,10 +36421,10 @@
         <v>-0.254641498746089</v>
       </c>
       <c r="X4" t="n">
-        <v>0.195530726256983</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.385474860335196</v>
+        <v>0.330143540669856</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -36513,10 +36513,10 @@
         <v>0.744975152720696</v>
       </c>
       <c r="X5" t="n">
-        <v>0.357541899441341</v>
+        <v>0.673684210526316</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.720670391061452</v>
+        <v>0.617224880382775</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -36605,10 +36605,10 @@
         <v>0.255131760791873</v>
       </c>
       <c r="X6" t="n">
-        <v>0.245810055865922</v>
+        <v>0.463157894736842</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.58659217877095</v>
+        <v>0.502392344497608</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -36697,10 +36697,10 @@
         <v>-0.722013384733633</v>
       </c>
       <c r="X7" t="n">
-        <v>0.128491620111732</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.206703910614525</v>
+        <v>0.177033492822967</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -36789,10 +36789,10 @@
         <v>-0.156403745601087</v>
       </c>
       <c r="X8" t="n">
-        <v>0.519553072625698</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.01117318435754</v>
+        <v>0.866028708133971</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -36881,10 +36881,10 @@
         <v>1.03876617062717</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.189944134078212</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -36973,10 +36973,10 @@
         <v>1.05251163010941</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0949720670391061</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0614525139664804</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -37065,10 +37065,10 @@
         <v>0.839375660242787</v>
       </c>
       <c r="X11" t="n">
-        <v>0.111731843575419</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.173184357541899</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -37157,10 +37157,10 @@
         <v>0.50330093466884</v>
       </c>
       <c r="X12" t="n">
-        <v>0.301675977653631</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.642458100558659</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -37249,10 +37249,10 @@
         <v>3.87216647599006</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0391061452513966</v>
+        <v>0.0736842105263158</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.223463687150838</v>
+        <v>0.191387559808612</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -37341,10 +37341,10 @@
         <v>-0.0350825411822213</v>
       </c>
       <c r="X14" t="n">
-        <v>0.368715083798883</v>
+        <v>0.694736842105263</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.642458100558659</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -37433,10 +37433,10 @@
         <v>0.249590664767722</v>
       </c>
       <c r="X15" t="n">
-        <v>0.301675977653631</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.826815642458101</v>
+        <v>0.708133971291866</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -37525,10 +37525,10 @@
         <v>-0.107084474630619</v>
       </c>
       <c r="X16" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.11731843575419</v>
+        <v>0.956937799043062</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -37617,10 +37617,10 @@
         <v>2.13879278072576</v>
       </c>
       <c r="X17" t="n">
-        <v>0.139664804469274</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.379888268156425</v>
+        <v>0.325358851674641</v>
       </c>
       <c r="Z17" t="s">
         <v>63</v>
@@ -37709,10 +37709,10 @@
         <v>1.57240146639617</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.212290502793296</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Z18" t="s">
         <v>65</v>
@@ -37801,10 +37801,10 @@
         <v>1.37939719414382</v>
       </c>
       <c r="X19" t="n">
-        <v>0.363128491620112</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.88268156424581</v>
+        <v>0.755980861244019</v>
       </c>
       <c r="Z19" t="s">
         <v>67</v>
@@ -37893,10 +37893,10 @@
         <v>0.11701943430582</v>
       </c>
       <c r="X20" t="n">
-        <v>0.301675977653631</v>
+        <v>0.568421052631579</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.391061452513966</v>
+        <v>0.334928229665072</v>
       </c>
       <c r="Z20" t="s">
         <v>69</v>
@@ -37985,10 +37985,10 @@
         <v>0.863068469380031</v>
       </c>
       <c r="X21" t="n">
-        <v>0.363128491620112</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.810055865921788</v>
+        <v>0.69377990430622</v>
       </c>
       <c r="Z21" t="s">
         <v>71</v>
@@ -38077,10 +38077,10 @@
         <v>1.29597427113622</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0391061452513966</v>
+        <v>0.0736842105263158</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.256983240223464</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z22" t="s">
         <v>422</v>
@@ -38169,10 +38169,10 @@
         <v>0.675746950269185</v>
       </c>
       <c r="X23" t="n">
-        <v>0.284916201117318</v>
+        <v>0.536842105263158</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.363128491620112</v>
+        <v>0.311004784688995</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -38261,10 +38261,10 @@
         <v>-0.683238936364766</v>
       </c>
       <c r="X24" t="n">
-        <v>0.525139664804469</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.899441340782123</v>
+        <v>0.770334928229665</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -38353,10 +38353,10 @@
         <v>2.937148603018</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0782122905027933</v>
+        <v>0.147368421052632</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.256983240223464</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -38445,10 +38445,10 @@
         <v>-1.82970741963218</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.0478468899521531</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -38537,10 +38537,10 @@
         <v>5.37437754150764</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0223463687150838</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.268156424581006</v>
+        <v>0.229665071770335</v>
       </c>
       <c r="Z27" t="s">
         <v>83</v>
@@ -38629,10 +38629,10 @@
         <v>-2.69305035605248</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0893854748603352</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.0478468899521531</v>
       </c>
       <c r="Z28" t="s">
         <v>85</v>
@@ -38721,10 +38721,10 @@
         <v>-0.654014369407573</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0893854748603352</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.217877094972067</v>
+        <v>0.186602870813397</v>
       </c>
       <c r="Z29" t="s">
         <v>87</v>
@@ -38813,10 +38813,10 @@
         <v>-0.399166986856485</v>
       </c>
       <c r="X30" t="n">
-        <v>0.502793296089385</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.03351955307263</v>
+        <v>0.885167464114832</v>
       </c>
       <c r="Z30" t="s">
         <v>91</v>
@@ -38905,10 +38905,10 @@
         <v>0.940677895429399</v>
       </c>
       <c r="X31" t="n">
-        <v>0.134078212290503</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.307262569832402</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Z31" t="s">
         <v>93</v>
@@ -38997,10 +38997,10 @@
         <v>0.668763656316663</v>
       </c>
       <c r="X32" t="n">
-        <v>0.122905027932961</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.346368715083799</v>
+        <v>0.296650717703349</v>
       </c>
       <c r="Z32" t="s">
         <v>95</v>
@@ -39089,10 +39089,10 @@
         <v>-0.314998375509474</v>
       </c>
       <c r="X33" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.1340782122905</v>
+        <v>0.971291866028708</v>
       </c>
       <c r="Z33" t="s">
         <v>99</v>
@@ -39181,10 +39181,10 @@
         <v>-0.342032153564911</v>
       </c>
       <c r="X34" t="n">
-        <v>0.435754189944134</v>
+        <v>0.821052631578947</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.620111731843575</v>
+        <v>0.5311004784689</v>
       </c>
       <c r="Z34" t="s">
         <v>101</v>
@@ -39273,10 +39273,10 @@
         <v>0.886797246296678</v>
       </c>
       <c r="X35" t="n">
-        <v>0.486033519553073</v>
+        <v>0.91578947368421</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.05027932960894</v>
+        <v>0.899521531100478</v>
       </c>
       <c r="Z35" t="s">
         <v>103</v>
@@ -39365,10 +39365,10 @@
         <v>0.324770846665049</v>
       </c>
       <c r="X36" t="n">
-        <v>0.452513966480447</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.687150837988827</v>
+        <v>0.588516746411483</v>
       </c>
       <c r="Z36" t="s">
         <v>105</v>
@@ -39457,10 +39457,10 @@
         <v>0.0687743882668907</v>
       </c>
       <c r="X37" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.12290502793296</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z37" t="s">
         <v>107</v>
@@ -39549,10 +39549,10 @@
         <v>-0.122294505710355</v>
       </c>
       <c r="X38" t="n">
-        <v>0.519553072625698</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.02793296089385</v>
+        <v>0.880382775119617</v>
       </c>
       <c r="Z38" t="s">
         <v>109</v>
@@ -39641,10 +39641,10 @@
         <v>-0.898987556646206</v>
       </c>
       <c r="X39" t="n">
-        <v>0.41340782122905</v>
+        <v>0.778947368421053</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.513966480446927</v>
+        <v>0.440191387559809</v>
       </c>
       <c r="Z39" t="s">
         <v>111</v>
@@ -39733,10 +39733,10 @@
         <v>-0.689709892424545</v>
       </c>
       <c r="X40" t="n">
-        <v>0.173184357541899</v>
+        <v>0.326315789473684</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0614525139664804</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Z40" t="s">
         <v>113</v>
@@ -39825,10 +39825,10 @@
         <v>-1.31389895585744</v>
       </c>
       <c r="X41" t="n">
-        <v>0.374301675977654</v>
+        <v>0.705263157894737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.329608938547486</v>
+        <v>0.282296650717703</v>
       </c>
       <c r="Z41" t="s">
         <v>115</v>
@@ -39917,10 +39917,10 @@
         <v>3.91862753481611</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.229050279329609</v>
+        <v>0.196172248803828</v>
       </c>
       <c r="Z42" t="s">
         <v>117</v>
@@ -40009,10 +40009,10 @@
         <v>-0.726104697933525</v>
       </c>
       <c r="X43" t="n">
-        <v>0.195530726256983</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.290502793296089</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z43" t="s">
         <v>119</v>
@@ -40101,10 +40101,10 @@
         <v>-0.710098459941549</v>
       </c>
       <c r="X44" t="n">
-        <v>0.111731843575419</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.134078212290503</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z44" t="s">
         <v>121</v>
@@ -40193,7 +40193,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -40285,10 +40285,10 @@
         <v>-0.959748228284534</v>
       </c>
       <c r="X46" t="n">
-        <v>0.402234636871508</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.463687150837989</v>
+        <v>0.397129186602871</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -40377,10 +40377,10 @@
         <v>-1.24492355320616</v>
       </c>
       <c r="X47" t="n">
-        <v>0.324022346368715</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.279329608938547</v>
+        <v>0.239234449760766</v>
       </c>
       <c r="Z47" t="s">
         <v>129</v>
@@ -40469,10 +40469,10 @@
         <v>-0.611346512274566</v>
       </c>
       <c r="X48" t="n">
-        <v>0.17877094972067</v>
+        <v>0.336842105263158</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.150837988826816</v>
+        <v>0.129186602870813</v>
       </c>
       <c r="Z48" t="s">
         <v>131</v>
@@ -40561,10 +40561,10 @@
         <v>3.28211520017012</v>
       </c>
       <c r="X49" t="n">
-        <v>0.206703910614525</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.793296089385475</v>
+        <v>0.679425837320574</v>
       </c>
       <c r="Z49" t="s">
         <v>135</v>
@@ -40653,10 +40653,10 @@
         <v>-1.3549177944507</v>
       </c>
       <c r="X50" t="n">
-        <v>0.46927374301676</v>
+        <v>0.884210526315789</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.754189944134078</v>
+        <v>0.645933014354067</v>
       </c>
       <c r="Z50" t="s">
         <v>137</v>
@@ -40745,10 +40745,10 @@
         <v>0.155491117375028</v>
       </c>
       <c r="X51" t="n">
-        <v>0.491620111731844</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.927374301675978</v>
+        <v>0.794258373205742</v>
       </c>
       <c r="Z51" t="s">
         <v>139</v>
@@ -40837,10 +40837,10 @@
         <v>-0.213875235679171</v>
       </c>
       <c r="X52" t="n">
-        <v>0.396648044692737</v>
+        <v>0.747368421052632</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.558659217877095</v>
+        <v>0.478468899521531</v>
       </c>
       <c r="Z52" t="s">
         <v>141</v>
@@ -40929,10 +40929,10 @@
         <v>-0.788139200809444</v>
       </c>
       <c r="X53" t="n">
-        <v>0.502793296089385</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.927374301675978</v>
+        <v>0.794258373205742</v>
       </c>
       <c r="Z53" t="s">
         <v>143</v>
@@ -41021,10 +41021,10 @@
         <v>2.35905992039711</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.435754189944134</v>
+        <v>0.373205741626794</v>
       </c>
       <c r="Z54" t="s">
         <v>145</v>
@@ -41113,10 +41113,10 @@
         <v>-1.36828312033104</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0893854748603352</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0726256983240224</v>
+        <v>0.062200956937799</v>
       </c>
       <c r="Z55" t="s">
         <v>147</v>
@@ -41205,10 +41205,10 @@
         <v>0.518892760847501</v>
       </c>
       <c r="X56" t="n">
-        <v>0.134078212290503</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.17877094972067</v>
+        <v>0.15311004784689</v>
       </c>
       <c r="Z56" t="s">
         <v>149</v>
@@ -41297,10 +41297,10 @@
         <v>2.80189621767823</v>
       </c>
       <c r="X57" t="n">
-        <v>0.150837988826816</v>
+        <v>0.284210526315789</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.64804469273743</v>
+        <v>0.555023923444976</v>
       </c>
       <c r="Z57" t="s">
         <v>151</v>
@@ -41389,10 +41389,10 @@
         <v>-5.20216435541398</v>
       </c>
       <c r="X58" t="n">
-        <v>0.100558659217877</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0837988826815642</v>
+        <v>0.0717703349282297</v>
       </c>
       <c r="Z58" t="s">
         <v>153</v>
@@ -41481,10 +41481,10 @@
         <v>0.543740622932263</v>
       </c>
       <c r="X59" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.08379888268156</v>
+        <v>0.92822966507177</v>
       </c>
       <c r="Z59" t="s">
         <v>155</v>
@@ -41573,10 +41573,10 @@
         <v>2.5661321675485</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0782122905027933</v>
+        <v>0.147368421052632</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.223463687150838</v>
+        <v>0.191387559808612</v>
       </c>
       <c r="Z60" t="s">
         <v>157</v>
@@ -41665,10 +41665,10 @@
         <v>-0.585686640199878</v>
       </c>
       <c r="X61" t="n">
-        <v>0.329608938547486</v>
+        <v>0.621052631578947</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.575418994413408</v>
+        <v>0.492822966507177</v>
       </c>
       <c r="Z61" t="s">
         <v>161</v>
@@ -41757,10 +41757,10 @@
         <v>-0.778561769038914</v>
       </c>
       <c r="X62" t="n">
-        <v>0.139664804469274</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.189944134078212</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z62" t="s">
         <v>163</v>
@@ -41849,10 +41849,10 @@
         <v>6.4078305666566</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.424581005586592</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Z63" t="s">
         <v>165</v>
@@ -41941,10 +41941,10 @@
         <v>-1.95631370558487</v>
       </c>
       <c r="X64" t="n">
-        <v>0.189944134078212</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.201117318435754</v>
+        <v>0.172248803827751</v>
       </c>
       <c r="Z64" t="s">
         <v>167</v>
@@ -42033,10 +42033,10 @@
         <v>0.184435814199175</v>
       </c>
       <c r="X65" t="n">
-        <v>0.195530726256983</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.46927374301676</v>
+        <v>0.401913875598086</v>
       </c>
       <c r="Z65" t="s">
         <v>169</v>
@@ -42125,10 +42125,10 @@
         <v>-0.417163228906467</v>
       </c>
       <c r="X66" t="n">
-        <v>0.446927374301676</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.664804469273743</v>
+        <v>0.569377990430622</v>
       </c>
       <c r="Z66" t="s">
         <v>171</v>
@@ -42217,10 +42217,10 @@
         <v>0.986663634153484</v>
       </c>
       <c r="X67" t="n">
-        <v>0.229050279329609</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.905027932960894</v>
+        <v>0.77511961722488</v>
       </c>
       <c r="Z67" t="s">
         <v>173</v>
@@ -42309,10 +42309,10 @@
         <v>-1.17012660509328</v>
       </c>
       <c r="X68" t="n">
-        <v>0.111731843575419</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0893854748603352</v>
+        <v>0.076555023923445</v>
       </c>
       <c r="Z68" t="s">
         <v>175</v>
@@ -42401,10 +42401,10 @@
         <v>-1.7965469519531</v>
       </c>
       <c r="X69" t="n">
-        <v>0.17877094972067</v>
+        <v>0.336842105263158</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.134078212290503</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z69" t="s">
         <v>177</v>
@@ -42493,10 +42493,10 @@
         <v>1.16011348263399</v>
       </c>
       <c r="X70" t="n">
-        <v>0.167597765363128</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.156424581005587</v>
+        <v>0.133971291866029</v>
       </c>
       <c r="Z70" t="s">
         <v>179</v>
@@ -42585,10 +42585,10 @@
         <v>1.65167013630603</v>
       </c>
       <c r="X71" t="n">
-        <v>0.184357541899441</v>
+        <v>0.347368421052632</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.273743016759777</v>
+        <v>0.23444976076555</v>
       </c>
       <c r="Z71" t="s">
         <v>181</v>
@@ -42677,10 +42677,10 @@
         <v>-1.33461288578141</v>
       </c>
       <c r="X72" t="n">
-        <v>0.195530726256983</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.189944134078212</v>
+        <v>0.162679425837321</v>
       </c>
       <c r="Z72" t="s">
         <v>183</v>
@@ -42769,10 +42769,10 @@
         <v>7.72224453314133</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0167597765363128</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.391061452513966</v>
+        <v>0.334928229665072</v>
       </c>
       <c r="Z73" t="s">
         <v>185</v>
@@ -42861,10 +42861,10 @@
         <v>0.855651921828199</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0446927374301676</v>
+        <v>0.0842105263157895</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.312849162011173</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z74" t="s">
         <v>187</v>
@@ -42953,10 +42953,10 @@
         <v>-0.719605689297036</v>
       </c>
       <c r="X75" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.12290502793296</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z75" t="s">
         <v>189</v>
@@ -43045,10 +43045,10 @@
         <v>-0.698269766905686</v>
       </c>
       <c r="X76" t="n">
-        <v>0.290502793296089</v>
+        <v>0.547368421052632</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.284916201117318</v>
+        <v>0.244019138755981</v>
       </c>
       <c r="Z76" t="s">
         <v>193</v>
@@ -43137,10 +43137,10 @@
         <v>-1.05403347076379</v>
       </c>
       <c r="X77" t="n">
-        <v>0.418994413407821</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.748603351955307</v>
+        <v>0.641148325358852</v>
       </c>
       <c r="Z77" t="s">
         <v>195</v>
@@ -43229,10 +43229,10 @@
         <v>-2.64313109155372</v>
       </c>
       <c r="X78" t="n">
-        <v>0.0614525139664804</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0502793296089385</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="Z78" t="s">
         <v>197</v>
@@ -43321,10 +43321,10 @@
         <v>-0.836269169559808</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0614525139664804</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.00956937799043062</v>
       </c>
       <c r="Z79" t="s">
         <v>199</v>
@@ -43413,10 +43413,10 @@
         <v>0.463387149969675</v>
       </c>
       <c r="X80" t="n">
-        <v>0.201117318435754</v>
+        <v>0.378947368421053</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.284916201117318</v>
+        <v>0.244019138755981</v>
       </c>
       <c r="Z80" t="s">
         <v>201</v>
@@ -43505,10 +43505,10 @@
         <v>-1.07070919944377</v>
       </c>
       <c r="X81" t="n">
-        <v>0.430167597765363</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.53072625698324</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Z81" t="s">
         <v>203</v>
@@ -43600,7 +43600,7 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.134078212290503</v>
+        <v>0.114832535885167</v>
       </c>
       <c r="Z82" t="s">
         <v>424</v>
@@ -43689,10 +43689,10 @@
         <v>-0.691058357677763</v>
       </c>
       <c r="X83" t="n">
-        <v>0.525139664804469</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.0391061452514</v>
+        <v>0.889952153110048</v>
       </c>
       <c r="Z83" t="s">
         <v>205</v>
@@ -43781,10 +43781,10 @@
         <v>3.18888040426033</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0279329608938547</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.122905027932961</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z84" t="s">
         <v>426</v>
@@ -43873,10 +43873,10 @@
         <v>1.60630758292814</v>
       </c>
       <c r="X85" t="n">
-        <v>0.100558659217877</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.374301675977654</v>
+        <v>0.320574162679426</v>
       </c>
       <c r="Z85" t="s">
         <v>207</v>
@@ -43965,10 +43965,10 @@
         <v>-1.16680417175428</v>
       </c>
       <c r="X86" t="n">
-        <v>0.385474860335196</v>
+        <v>0.726315789473684</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.435754189944134</v>
+        <v>0.373205741626794</v>
       </c>
       <c r="Z86" t="s">
         <v>209</v>
@@ -44057,10 +44057,10 @@
         <v>-2.21712599850608</v>
       </c>
       <c r="X87" t="n">
-        <v>0.256983240223464</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.162011173184358</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="Z87" t="s">
         <v>211</v>
@@ -44149,10 +44149,10 @@
         <v>4.65197982067074</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0391061452513966</v>
+        <v>0.0736842105263158</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.312849162011173</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z88" t="s">
         <v>428</v>
@@ -44241,10 +44241,10 @@
         <v>-0.562074384700123</v>
       </c>
       <c r="X89" t="n">
-        <v>0.497206703910615</v>
+        <v>0.936842105263158</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.994413407821229</v>
+        <v>0.851674641148325</v>
       </c>
       <c r="Z89" t="s">
         <v>213</v>
@@ -44333,10 +44333,10 @@
         <v>0.0784267764805687</v>
       </c>
       <c r="X90" t="n">
-        <v>0.150837988826816</v>
+        <v>0.284210526315789</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.245810055865922</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Z90" t="s">
         <v>215</v>
@@ -44425,10 +44425,10 @@
         <v>-2.67084997316609</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.11731843575419</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z91" t="s">
         <v>217</v>
@@ -44517,10 +44517,10 @@
         <v>-0.753222937233853</v>
       </c>
       <c r="X92" t="n">
-        <v>0.519553072625698</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.88268156424581</v>
+        <v>0.755980861244019</v>
       </c>
       <c r="Z92" t="s">
         <v>219</v>
@@ -44609,10 +44609,10 @@
         <v>1.45914435639682</v>
       </c>
       <c r="X93" t="n">
-        <v>0.106145251396648</v>
+        <v>0.2</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.58659217877095</v>
+        <v>0.502392344497608</v>
       </c>
       <c r="Z93" t="s">
         <v>221</v>
@@ -44701,10 +44701,10 @@
         <v>0.0916763893889376</v>
       </c>
       <c r="X94" t="n">
-        <v>0.189944134078212</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.312849162011173</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z94" t="s">
         <v>223</v>
@@ -44793,10 +44793,10 @@
         <v>-0.395153249720383</v>
       </c>
       <c r="X95" t="n">
-        <v>0.402234636871508</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.480446927374302</v>
+        <v>0.411483253588517</v>
       </c>
       <c r="Z95" t="s">
         <v>225</v>
@@ -44885,10 +44885,10 @@
         <v>0.48323965705749</v>
       </c>
       <c r="X96" t="n">
-        <v>0.206703910614525</v>
+        <v>0.389473684210526</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.631284916201117</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="Z96" t="s">
         <v>227</v>
@@ -44977,10 +44977,10 @@
         <v>-1.95591184186357</v>
       </c>
       <c r="X97" t="n">
-        <v>0.229050279329609</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.251396648044693</v>
+        <v>0.215311004784689</v>
       </c>
       <c r="Z97" t="s">
         <v>229</v>
@@ -45069,10 +45069,10 @@
         <v>-2.34061789226093</v>
       </c>
       <c r="X98" t="n">
-        <v>0.0726256983240224</v>
+        <v>0.136842105263158</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.111731843575419</v>
+        <v>0.0956937799043062</v>
       </c>
       <c r="Z98" t="s">
         <v>231</v>
@@ -45161,10 +45161,10 @@
         <v>2.95697997016673</v>
       </c>
       <c r="X99" t="n">
-        <v>0.273743016759777</v>
+        <v>0.515789473684211</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.01675977653631</v>
+        <v>0.870813397129187</v>
       </c>
       <c r="Z99" t="s">
         <v>233</v>
@@ -45253,10 +45253,10 @@
         <v>0.949978774075781</v>
       </c>
       <c r="X100" t="n">
-        <v>0.212290502793296</v>
+        <v>0.4</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.290502793296089</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z100" t="s">
         <v>235</v>
@@ -45345,10 +45345,10 @@
         <v>-1.51543799843059</v>
       </c>
       <c r="X101" t="n">
-        <v>0.318435754189944</v>
+        <v>0.6</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.312849162011173</v>
+        <v>0.267942583732057</v>
       </c>
       <c r="Z101" t="s">
         <v>237</v>
@@ -45437,10 +45437,10 @@
         <v>-1.70493876628382</v>
       </c>
       <c r="X102" t="n">
-        <v>0.162011173184358</v>
+        <v>0.305263157894737</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.11731843575419</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z102" t="s">
         <v>239</v>
@@ -45529,10 +45529,10 @@
         <v>2.22943145023601</v>
       </c>
       <c r="X103" t="n">
-        <v>0.111731843575419</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.418994413407821</v>
+        <v>0.358851674641148</v>
       </c>
       <c r="Z103" t="s">
         <v>241</v>
@@ -45621,10 +45621,10 @@
         <v>0.353502155708668</v>
       </c>
       <c r="X104" t="n">
-        <v>0.491620111731844</v>
+        <v>0.926315789473684</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.06145251396648</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Z104" t="s">
         <v>243</v>
@@ -45713,10 +45713,10 @@
         <v>1.41241094101633</v>
       </c>
       <c r="X105" t="n">
-        <v>0.318435754189944</v>
+        <v>0.6</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.798882681564246</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Z105" t="s">
         <v>245</v>
@@ -45805,10 +45805,10 @@
         <v>-1.67823580925518</v>
       </c>
       <c r="X106" t="n">
-        <v>0.474860335195531</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.653631284916201</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="Z106" t="s">
         <v>247</v>
@@ -45897,10 +45897,10 @@
         <v>3.48120233647195</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.29608938547486</v>
+        <v>0.253588516746411</v>
       </c>
       <c r="Z107" t="s">
         <v>249</v>
@@ -45989,10 +45989,10 @@
         <v>-1.29232473903562</v>
       </c>
       <c r="X108" t="n">
-        <v>0.53072625698324</v>
+        <v>1</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.12290502793296</v>
+        <v>0.961722488038278</v>
       </c>
       <c r="Z108" t="s">
         <v>251</v>
@@ -46081,10 +46081,10 @@
         <v>0.519378470653421</v>
       </c>
       <c r="X109" t="n">
-        <v>0.318435754189944</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.782122905027933</v>
+        <v>0.669856459330144</v>
       </c>
       <c r="Z109" t="s">
         <v>253</v>
@@ -46173,10 +46173,10 @@
         <v>-0.891076180033052</v>
       </c>
       <c r="X110" t="n">
-        <v>0.430167597765363</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.642458100558659</v>
+        <v>0.550239234449761</v>
       </c>
       <c r="Z110" t="s">
         <v>255</v>
@@ -46265,10 +46265,10 @@
         <v>-0.708895609055757</v>
       </c>
       <c r="X111" t="n">
-        <v>0.41340782122905</v>
+        <v>0.778947368421053</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.64804469273743</v>
+        <v>0.555023923444976</v>
       </c>
       <c r="Z111" t="s">
         <v>257</v>
@@ -46357,10 +46357,10 @@
         <v>-0.928296728479757</v>
       </c>
       <c r="X112" t="n">
-        <v>0.374301675977654</v>
+        <v>0.705263157894737</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.508379888268156</v>
+        <v>0.435406698564593</v>
       </c>
       <c r="Z112" t="s">
         <v>259</v>
@@ -46449,10 +46449,10 @@
         <v>-0.24522658819797</v>
       </c>
       <c r="X113" t="n">
-        <v>0.513966480446927</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.776536312849162</v>
+        <v>0.665071770334928</v>
       </c>
       <c r="Z113" t="s">
         <v>265</v>
@@ -46541,10 +46541,10 @@
         <v>-0.784129240278227</v>
       </c>
       <c r="X114" t="n">
-        <v>0.452513966480447</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.759776536312849</v>
+        <v>0.650717703349282</v>
       </c>
       <c r="Z114" t="s">
         <v>267</v>
@@ -46633,10 +46633,10 @@
         <v>5.56893312841602</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.335195530726257</v>
+        <v>0.287081339712919</v>
       </c>
       <c r="Z115" t="s">
         <v>271</v>
@@ -46725,10 +46725,10 @@
         <v>1.53807924731874</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0949720670391061</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.240223463687151</v>
+        <v>0.205741626794258</v>
       </c>
       <c r="Z116" t="s">
         <v>273</v>
@@ -46817,10 +46817,10 @@
         <v>-0.0399249970564987</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.139664804469274</v>
+        <v>0.119617224880383</v>
       </c>
       <c r="Z117" t="s">
         <v>279</v>
@@ -46909,10 +46909,10 @@
         <v>3.54019962602244</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.245810055865922</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Z118" t="s">
         <v>281</v>
@@ -47001,10 +47001,10 @@
         <v>-1.15749798023584</v>
       </c>
       <c r="X119" t="n">
-        <v>0.407821229050279</v>
+        <v>0.768421052631579</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.597765363128492</v>
+        <v>0.511961722488038</v>
       </c>
       <c r="Z119" t="s">
         <v>285</v>
@@ -47093,10 +47093,10 @@
         <v>0.883294302445948</v>
       </c>
       <c r="X120" t="n">
-        <v>0.0837988826815642</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.173184357541899</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z120" t="s">
         <v>287</v>
@@ -47185,10 +47185,10 @@
         <v>2.90857045830211</v>
       </c>
       <c r="X121" t="n">
-        <v>0.128491620111732</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.35195530726257</v>
+        <v>0.301435406698565</v>
       </c>
       <c r="Z121" t="s">
         <v>289</v>
@@ -47277,10 +47277,10 @@
         <v>1.25177761835779</v>
       </c>
       <c r="X122" t="n">
-        <v>0.145251396648045</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.324022346368715</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="Z122" t="s">
         <v>291</v>
@@ -47369,10 +47369,10 @@
         <v>-0.162213567659714</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0614525139664804</v>
+        <v>0.115789473684211</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.0837988826815642</v>
+        <v>0.0717703349282297</v>
       </c>
       <c r="Z123" t="s">
         <v>293</v>
@@ -47461,10 +47461,10 @@
         <v>-0.339838626217757</v>
       </c>
       <c r="X124" t="n">
-        <v>0.145251396648045</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.290502793296089</v>
+        <v>0.248803827751196</v>
       </c>
       <c r="Z124" t="s">
         <v>295</v>
@@ -47553,10 +47553,10 @@
         <v>0.724915717801792</v>
       </c>
       <c r="X125" t="n">
-        <v>0.268156424581006</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.569832402234637</v>
+        <v>0.488038277511962</v>
       </c>
       <c r="Z125" t="s">
         <v>297</v>
@@ -47645,10 +47645,10 @@
         <v>-1.3387587803687</v>
       </c>
       <c r="X126" t="n">
-        <v>0.122905027932961</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.100558659217877</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="Z126" t="s">
         <v>299</v>
@@ -47737,10 +47737,10 @@
         <v>-0.544353618792067</v>
       </c>
       <c r="X127" t="n">
-        <v>0.346368715083799</v>
+        <v>0.652631578947368</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.441340782122905</v>
+        <v>0.37799043062201</v>
       </c>
       <c r="Z127" t="s">
         <v>301</v>
@@ -47829,10 +47829,10 @@
         <v>-0.182870227504379</v>
       </c>
       <c r="X128" t="n">
-        <v>0.0335195530726257</v>
+        <v>0.0631578947368421</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.212290502793296</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Z128" t="s">
         <v>430</v>
@@ -47921,10 +47921,10 @@
         <v>1.4569270790556</v>
       </c>
       <c r="X129" t="n">
-        <v>0.273743016759777</v>
+        <v>0.515789473684211</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.402234636871508</v>
+        <v>0.344497607655502</v>
       </c>
       <c r="Z129" t="s">
         <v>303</v>
@@ -48013,10 +48013,10 @@
         <v>1.11106395326899</v>
       </c>
       <c r="X130" t="n">
-        <v>0.268156424581006</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.675977653631285</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="Z130" t="s">
         <v>307</v>
@@ -48105,10 +48105,10 @@
         <v>-0.736832749369771</v>
       </c>
       <c r="X131" t="n">
-        <v>0.335195530726257</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.41340782122905</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="Z131" t="s">
         <v>309</v>
@@ -48197,10 +48197,10 @@
         <v>-1.23110294132985</v>
       </c>
       <c r="X132" t="n">
-        <v>0.508379888268156</v>
+        <v>0.957894736842105</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.441340782122905</v>
+        <v>0.37799043062201</v>
       </c>
       <c r="Z132" t="s">
         <v>311</v>
@@ -48289,10 +48289,10 @@
         <v>3.56366936602109</v>
       </c>
       <c r="X133" t="n">
-        <v>0.111731843575419</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.195530726256983</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="Z133" t="s">
         <v>313</v>
@@ -48381,10 +48381,10 @@
         <v>0.858515010196342</v>
       </c>
       <c r="X134" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.11731843575419</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z134" t="s">
         <v>315</v>
@@ -48473,10 +48473,10 @@
         <v>-1.40518351325237</v>
       </c>
       <c r="X135" t="n">
-        <v>0.497206703910615</v>
+        <v>0.936842105263158</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.776536312849162</v>
+        <v>0.665071770334928</v>
       </c>
       <c r="Z135" t="s">
         <v>317</v>
@@ -48565,10 +48565,10 @@
         <v>1.03598517142751</v>
       </c>
       <c r="X136" t="n">
-        <v>0.251396648044693</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.581005586592179</v>
+        <v>0.497607655502392</v>
       </c>
       <c r="Z136" t="s">
         <v>319</v>
@@ -48657,10 +48657,10 @@
         <v>-2.48031272600007</v>
       </c>
       <c r="X137" t="n">
-        <v>0.100558659217877</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0726256983240224</v>
+        <v>0.062200956937799</v>
       </c>
       <c r="Z137" t="s">
         <v>321</v>
@@ -48749,10 +48749,10 @@
         <v>-0.476368277906841</v>
       </c>
       <c r="X138" t="n">
-        <v>0.486033519553073</v>
+        <v>0.91578947368421</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.843575418994413</v>
+        <v>0.722488038277512</v>
       </c>
       <c r="Z138" t="s">
         <v>323</v>
@@ -48841,10 +48841,10 @@
         <v>-2.26517174365113</v>
       </c>
       <c r="X139" t="n">
-        <v>0.189944134078212</v>
+        <v>0.357894736842105</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.23463687150838</v>
+        <v>0.200956937799043</v>
       </c>
       <c r="Z139" t="s">
         <v>325</v>
@@ -48933,10 +48933,10 @@
         <v>-0.635155798995246</v>
       </c>
       <c r="X140" t="n">
-        <v>0.335195530726257</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.608938547486033</v>
+        <v>0.521531100478469</v>
       </c>
       <c r="Z140" t="s">
         <v>327</v>
@@ -49025,10 +49025,10 @@
         <v>0.257387037715323</v>
       </c>
       <c r="X141" t="n">
-        <v>0.122905027932961</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.217877094972067</v>
+        <v>0.186602870813397</v>
       </c>
       <c r="Z141" t="s">
         <v>329</v>
@@ -49117,10 +49117,10 @@
         <v>0.220514826803953</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0893854748603352</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.167597765363128</v>
+        <v>0.143540669856459</v>
       </c>
       <c r="Z142" t="s">
         <v>331</v>
@@ -49212,7 +49212,7 @@
         <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.240223463687151</v>
+        <v>0.205741626794258</v>
       </c>
       <c r="Z143" t="s">
         <v>333</v>
@@ -49301,10 +49301,10 @@
         <v>1.41843752627345</v>
       </c>
       <c r="X144" t="n">
-        <v>0.128491620111732</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.273743016759777</v>
+        <v>0.23444976076555</v>
       </c>
       <c r="Z144" t="s">
         <v>335</v>
@@ -49393,10 +49393,10 @@
         <v>-0.403749376986487</v>
       </c>
       <c r="X145" t="n">
-        <v>0.35195530726257</v>
+        <v>0.663157894736842</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.541899441340782</v>
+        <v>0.464114832535885</v>
       </c>
       <c r="Z145" t="s">
         <v>337</v>
@@ -49485,10 +49485,10 @@
         <v>-1.32763448479657</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.128491620111732</v>
+        <v>0.110047846889952</v>
       </c>
       <c r="Z146" t="s">
         <v>341</v>
@@ -49577,10 +49577,10 @@
         <v>-0.611414154529854</v>
       </c>
       <c r="X147" t="n">
-        <v>0.106145251396648</v>
+        <v>0.2</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.122905027932961</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z147" t="s">
         <v>343</v>
@@ -49669,10 +49669,10 @@
         <v>1.04310535593663</v>
       </c>
       <c r="X148" t="n">
-        <v>0.134078212290503</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.318435754189944</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Z148" t="s">
         <v>345</v>
@@ -49761,10 +49761,10 @@
         <v>-1.92149772898259</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0391061452513966</v>
+        <v>0.0334928229665072</v>
       </c>
       <c r="Z149" t="s">
         <v>347</v>
@@ -49853,10 +49853,10 @@
         <v>-1.23986859842821</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0949720670391061</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.11731843575419</v>
+        <v>0.100478468899522</v>
       </c>
       <c r="Z150" t="s">
         <v>349</v>
@@ -49945,10 +49945,10 @@
         <v>3.02644841160149</v>
       </c>
       <c r="X151" t="n">
-        <v>0.0167597765363128</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.452513966480447</v>
+        <v>0.38755980861244</v>
       </c>
       <c r="Z151" t="s">
         <v>351</v>
@@ -50037,10 +50037,10 @@
         <v>-1.46382038925993</v>
       </c>
       <c r="X152" t="n">
-        <v>0.122905027932961</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.122905027932961</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z152" t="s">
         <v>353</v>
@@ -50129,10 +50129,10 @@
         <v>0.90870684019041</v>
       </c>
       <c r="X153" t="n">
-        <v>0.212290502793296</v>
+        <v>0.4</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.592178770949721</v>
+        <v>0.507177033492823</v>
       </c>
       <c r="Z153" t="s">
         <v>357</v>
@@ -50221,10 +50221,10 @@
         <v>1.03533452779119</v>
       </c>
       <c r="X154" t="n">
-        <v>0.513966480446927</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="Y154" t="n">
-        <v>1.05027932960894</v>
+        <v>0.899521531100478</v>
       </c>
       <c r="Z154" t="s">
         <v>359</v>
@@ -50313,10 +50313,10 @@
         <v>1.24327777188919</v>
       </c>
       <c r="X155" t="n">
-        <v>0.268156424581006</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.675977653631285</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="Z155" t="s">
         <v>361</v>
@@ -50405,10 +50405,10 @@
         <v>1.03880527796649</v>
       </c>
       <c r="X156" t="n">
-        <v>0.368715083798883</v>
+        <v>0.694736842105263</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.681564245810056</v>
+        <v>0.583732057416268</v>
       </c>
       <c r="Z156" t="s">
         <v>363</v>
@@ -50497,10 +50497,10 @@
         <v>0.708424010023413</v>
       </c>
       <c r="X157" t="n">
-        <v>0.145251396648045</v>
+        <v>0.273684210526316</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.519553072625698</v>
+        <v>0.444976076555024</v>
       </c>
       <c r="Z157" t="s">
         <v>365</v>
@@ -50589,10 +50589,10 @@
         <v>-0.278663198943728</v>
       </c>
       <c r="X158" t="n">
-        <v>0.29608938547486</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.502793296089385</v>
+        <v>0.430622009569378</v>
       </c>
       <c r="Z158" t="s">
         <v>367</v>
@@ -50681,10 +50681,10 @@
         <v>-0.0616970737380171</v>
       </c>
       <c r="X159" t="n">
-        <v>0.256983240223464</v>
+        <v>0.484210526315789</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.513966480446927</v>
+        <v>0.440191387559809</v>
       </c>
       <c r="Z159" t="s">
         <v>369</v>
@@ -50773,10 +50773,10 @@
         <v>-1.21626902018864</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.0478468899521531</v>
       </c>
       <c r="Z160" t="s">
         <v>371</v>
@@ -50868,7 +50868,7 @@
         <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.653631284916201</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="Z161" t="s">
         <v>373</v>
@@ -50957,10 +50957,10 @@
         <v>2.88011755545997</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.324022346368715</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="Z162" t="s">
         <v>375</v>
@@ -51049,10 +51049,10 @@
         <v>2.44905880714335</v>
       </c>
       <c r="X163" t="n">
-        <v>0.508379888268156</v>
+        <v>0.957894736842105</v>
       </c>
       <c r="Y163" t="n">
-        <v>1.15642458100559</v>
+        <v>0.990430622009569</v>
       </c>
       <c r="Z163" t="s">
         <v>377</v>
@@ -51141,10 +51141,10 @@
         <v>0.711677261222327</v>
       </c>
       <c r="X164" t="n">
-        <v>0.480446927374302</v>
+        <v>0.905263157894737</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.94413407821229</v>
+        <v>0.808612440191388</v>
       </c>
       <c r="Z164" t="s">
         <v>379</v>
@@ -51233,10 +51233,10 @@
         <v>-0.693913707110385</v>
       </c>
       <c r="X165" t="n">
-        <v>0.435754189944134</v>
+        <v>0.821052631578947</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.849162011173184</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Z165" t="s">
         <v>381</v>
@@ -51325,10 +51325,10 @@
         <v>0.443183814297342</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0670391061452514</v>
+        <v>0.126315789473684</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0558659217877095</v>
+        <v>0.0478468899521531</v>
       </c>
       <c r="Z166" t="s">
         <v>383</v>
@@ -51417,10 +51417,10 @@
         <v>-2.91701279131859</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0502793296089385</v>
+        <v>0.0947368421052632</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.145251396648045</v>
+        <v>0.124401913875598</v>
       </c>
       <c r="Z167" t="s">
         <v>385</v>
@@ -51509,10 +51509,10 @@
         <v>0.111430217437352</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0949720670391061</v>
+        <v>0.178947368421053</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.256983240223464</v>
+        <v>0.220095693779904</v>
       </c>
       <c r="Z168" t="s">
         <v>387</v>
@@ -51601,10 +51601,10 @@
         <v>2.60994630807773</v>
       </c>
       <c r="X169" t="n">
-        <v>0.0726256983240224</v>
+        <v>0.136842105263158</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.262569832402235</v>
+        <v>0.22488038277512</v>
       </c>
       <c r="Z169" t="s">
         <v>389</v>
@@ -51693,10 +51693,10 @@
         <v>0.500606430045236</v>
       </c>
       <c r="X170" t="n">
-        <v>0.100558659217877</v>
+        <v>0.189473684210526</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.368715083798883</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="Z170" t="s">
         <v>391</v>
@@ -51785,10 +51785,10 @@
         <v>-1.62819076297387</v>
       </c>
       <c r="X171" t="n">
-        <v>0.134078212290503</v>
+        <v>0.252631578947368</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.122905027932961</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="Z171" t="s">
         <v>393</v>
@@ -51877,10 +51877,10 @@
         <v>0.208122869297617</v>
       </c>
       <c r="X172" t="n">
-        <v>0.35195530726257</v>
+        <v>0.663157894736842</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.631284916201117</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="Z172" t="s">
         <v>395</v>
@@ -51969,10 +51969,10 @@
         <v>-0.516703849220243</v>
       </c>
       <c r="X173" t="n">
-        <v>0.452513966480447</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.70391061452514</v>
+        <v>0.602870813397129</v>
       </c>
       <c r="Z173" t="s">
         <v>397</v>
@@ -52061,10 +52061,10 @@
         <v>0.0184841197097005</v>
       </c>
       <c r="X174" t="n">
-        <v>0.402234636871508</v>
+        <v>0.757894736842105</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.614525139664804</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="Z174" t="s">
         <v>399</v>
@@ -52153,10 +52153,10 @@
         <v>-1.41048542387209</v>
       </c>
       <c r="X175" t="n">
-        <v>0.363128491620112</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.46927374301676</v>
+        <v>0.401913875598086</v>
       </c>
       <c r="Z175" t="s">
         <v>401</v>
@@ -52245,10 +52245,10 @@
         <v>-1.61836167847277</v>
       </c>
       <c r="X176" t="n">
-        <v>0.122905027932961</v>
+        <v>0.231578947368421</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.111731843575419</v>
+        <v>0.0956937799043062</v>
       </c>
       <c r="Z176" t="s">
         <v>403</v>
@@ -52337,10 +52337,10 @@
         <v>-0.553325514163352</v>
       </c>
       <c r="X177" t="n">
-        <v>0.128491620111732</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.173184357541899</v>
+        <v>0.148325358851675</v>
       </c>
       <c r="Z177" t="s">
         <v>405</v>
@@ -52429,10 +52429,10 @@
         <v>4.24772951401071</v>
       </c>
       <c r="X178" t="n">
-        <v>0.324022346368715</v>
+        <v>0.610526315789474</v>
       </c>
       <c r="Y178" t="n">
-        <v>1.02234636871508</v>
+        <v>0.875598086124402</v>
       </c>
       <c r="Z178" t="s">
         <v>407</v>
@@ -52524,7 +52524,7 @@
         <v>0</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.156424581005587</v>
+        <v>0.133971291866029</v>
       </c>
       <c r="Z179" t="s">
         <v>409</v>
@@ -52613,10 +52613,10 @@
         <v>-1.46574022052979</v>
       </c>
       <c r="X180" t="n">
-        <v>0.128491620111732</v>
+        <v>0.242105263157895</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.0782122905027933</v>
+        <v>0.0669856459330144</v>
       </c>
       <c r="Z180" t="s">
         <v>411</v>
